--- a/data/north_temples.xlsx
+++ b/data/north_temples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080"/>
+    <workbookView windowWidth="19200" windowHeight="6080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="503">
   <si>
     <t>FileName</t>
   </si>
@@ -1253,6 +1253,5967 @@
   </si>
   <si>
     <t>/gurus/images/saibaba.jpg</t>
+  </si>
+  <si>
+    <t>Tiruvannamalai, Tamil Nadu, India</t>
+  </si>
+  <si>
+    <t>Whenever I think about pure, formless divinity, Arunachalesvara Temple instantly comes to my mind. Located at the base of the sacred Arunachala Hill, this temple feels less like a constructed space and more like a living spiritual presence. For me, Tiruvannamalai is not just a pilgrimage town — it is a place where silence itself feels divine and Shiva is experienced not only worshipped.</t>
+  </si>
+  <si>
+    <t>Arunachalesvara Temple is dedicated to Lord Shiva in his form as Annamalaiyar, representing the element of fire (Agni). The temple complex is vast, majestic, and deeply ancient, with roots tracing back over a thousand years. Built and expanded by great South Indian dynasties such as the Cholas, Pandyas, and Vijayanagara rulers, the temple stands as a powerful fusion of devotion, architecture, and cosmic symbolism. To me, its sheer scale mirrors the infinite nature of Shiva himself.Historically, Arunachalesvara Temple flourished under multiple South Indian dynasties who saw it as a vital spiritual center. It was not just a temple but a hub of philosophy, learning, and Shaiva Siddhanta tradition. Saints like Arunagirinathar and later spiritual giants such as Ramana Maharshi were deeply connected to Arunachala, reinforcing its importance as a place of self-realization. For me, this continuity of seekers across centuries is incredibly powerful.Culturally, Arunachalesvara Temple is the soul of Tiruvannamalai. It has inspired devotional poetry, classical music, yogic traditions, and philosophical thought for centuries. Even today, seekers from across the world come here not just to worship, but to sit, reflect, and dissolve into silence. To me, this temple represents the idea that true spirituality is about inner fire, not outer display.</t>
+  </si>
+  <si>
+    <t>Spiritually, Arunachalesvara Temple holds an unparalleled place as one of the Pancha Bhoota Sthalams, representing the fire element. According to legend, Shiva appeared here as an endless column of fire to dissolve the ego of Brahma and Vishnu. Arunachala Hill itself is worshipped as Shiva, making this one of the rare places where the deity and the landscape are one. This idea deeply moves me — that God does not reside only inside sanctums but rises naturally from the earth itself.Architecturally, the temple is a masterpiece of Dravidian design, covering over 25 acres and enclosed by massive stone walls. The towering gopurams, especially the eastern Rajagopuram standing around 217 feet tall, dominate the skyline of Tiruvannamalai. Inside, intricately carved mandapams, pillared halls, and sacred tanks reflect centuries of artistic devotion. Every stone here feels intentional, as if placed with both faith and cosmic awareness.</t>
+  </si>
+  <si>
+    <t>Daily rituals at Arunachalesvara Temple are conducted with intense devotion, including Abhishekam, Alankaram, and multiple Deeparadhanas throughout the day. A unique spiritual practice associated with this temple is Girivalam — the barefoot circumambulation of the Arunachala Hill — which devotees believe cleanses karmas and brings inner clarity. This ritual feels deeply personal and meditative to me, more like a spiritual journey than a ceremony.The most significant festival celebrated here is Karthigai Deepam, when a massive sacred fire is lit atop Arunachala Hill, visible for miles. This flame represents Shiva as pure consciousness and attracts millions of devotees. Other major festivals include Maha Shivaratri and Pradosham days, during which the temple overflows with devotion. These celebrations transform the entire town into a spiritual landscape.</t>
+  </si>
+  <si>
+    <t>https://annamalaiyar.hrce.tn.gov.in/</t>
+  </si>
+  <si>
+    <t>Belur, Hassan District, Karnataka, India</t>
+  </si>
+  <si>
+    <t>Whenever I read about temples that blur the line between devotion and art, Chennakeshava Temple instantly stands out to me. Located in Belur, this temple feels like a divine sculpture gallery where every stone breathes faith. For me, it represents how beauty itself can become a form of worship when created with surrender and skill.</t>
+  </si>
+  <si>
+    <t>Chennakeshava Temple is dedicated to Lord Vishnu in his beautiful form as Kesava and was commissioned in 1117 CE by the Hoysala king Vishnuvardhana. Built entirely from soft soapstone, the temple is world-renowned for its extraordinary carvings that narrate stories from the Ramayana, Mahabharata, and Bhagavata Purana. Walking through this temple feels like reading sacred scriptures carved directly into stone.Chennakeshava Temple is dedicated to Lord Vishnu in his beautiful form as Kesava and was commissioned in 1117 CE by the Hoysala king Vishnuvardhana. Built entirely from soft soapstone, the temple is world-renowned for its extraordinary carvings that narrate stories from the Ramayana, Mahabharata, and Bhagavata Purana. Walking through this temple feels like reading sacred scriptures carved directly into stone.Historically, the temple marks the rise of the Hoysala Empire as a dominant cultural and political force in South India. King Vishnuvardhana built it to commemorate his victory over the Cholas and his transformation into a powerful Vaishnava ruler. Over centuries, the temple remained a center for art, ritual, and royal patronage, preserving Karnataka’s architectural identity.</t>
+  </si>
+  <si>
+    <t>Spiritually, this temple symbolizes devotion expressed through perfection. Lord Chennakeshava here represents Vishnu as the preserver of cosmic order, grace, and beauty. To me, the temple teaches that spirituality is not only about renunciation but also about celebrating divine harmony through creativity, balance, and detail.Architecturally, Chennakeshava Temple is a masterpiece of Hoysala architecture. The star-shaped platform, lathe-turned pillars, intricately carved ceilings, and jewel-like sculptures make it one of the most refined temples ever built in India. The detailing is so precise that even strands of hair, ornaments, and expressions are sculpted with astonishing realism. I feel this temple proves that patience and devotion can turn stone into life.</t>
+  </si>
+  <si>
+    <t>Daily rituals at Chennakeshava Temple include traditional Vishnu worship practices such as Alankara, Archana, and Deeparadhana. Although it is now also a protected heritage monument, worship continues to maintain the temple’s living spiritual essence. For me, this balance between preservation and devotion makes the temple even more special.Major festivals celebrated here include Vaikuntha Ekadashi, Janmashtami, and annual temple celebrations dedicated to Lord Vishnu. During these times, the temple comes alive with music, lamps, and rituals, reconnecting the carvings and corridors with their original devotional purpose.</t>
+  </si>
+  <si>
+    <t>https://hassan.nic.in/en/tourist-place/chennakeshava-temple-belur/</t>
+  </si>
+  <si>
+    <t>Thanjavur, Tamil Nadu, India</t>
+  </si>
+  <si>
+    <t>Whenever I think of South India’s spiritual and architectural greatness, Brihadisvara Temple in Thanjavur stands tall in my heart. Built over a thousand years ago, this magnificent Shiva temple is not just a place of worship but a timeless symbol of Chola brilliance, devotion, and engineering mastery. Dedicated to Lord Shiva in the form of Brihadisvara (the Great Lord), this temple instantly fills me with awe for the vision and faith of ancient India.</t>
+  </si>
+  <si>
+    <t>Brihadisvara Temple, also known as Peruvudaiyar Kovil, was constructed in 1010 CE by the great Chola emperor Raja Raja Chola I. The temple is world-famous for its towering Vimana (temple tower) that rises to about 66 meters, making it one of the tallest temple towers ever built in stone. What amazes me the most is the massive single stone capstone weighing nearly 80 tons placed perfectly on top, a feat that still puzzles modern engineers. The temple complex is built entirely of granite, even though granite is not naturally available in the Thanjavur region. The inner sanctum houses one of the largest Shiva Lingas in India, radiating immense spiritual power and serenity.The architectural brilliance of Brihadisvara Temple leaves me speechless every time I study it. It is a masterpiece of Dravidian architecture, perfectly symmetrical and mathematically precise. The temple walls are adorned with ancient Chola frescoes depicting stories of Shiva, saints, and royal patrons. The massive Nandi statue carved from a single stone sits majestically facing the sanctum. What fascinates me deeply is how the temple’s shadow never falls on the ground at noon — a subtle yet powerful demonstration of ancient Indian scientific knowledge blended with spirituality.Historically, Brihadisvara Temple stands as a proud reminder of the Chola Empire’s golden age. Raja Raja Chola I built this temple not only as a religious center but also as a symbol of cultural unity, artistic excellence, and imperial strength. In 1987, UNESCO recognized its global value by declaring it a World Heritage Site under the “Great Living Chola Temples.” For me, this temple is living history — still vibrant with prayers, rituals, and devotion after a millennium.</t>
+  </si>
+  <si>
+    <t>Spiritually, Brihadisvara Temple represents Lord Shiva as the supreme cosmic force — the creator, preserver, and destroyer. Standing before the massive Shiva Linga, I feel a deep sense of humility and surrender. This temple is believed to amplify inner strength, discipline, and spiritual awakening. Devotees believe that prayers offered here help overcome ego, fear, and karmic burdens, aligning one’s life with dharma and devotion.</t>
+  </si>
+  <si>
+    <t>Daily rituals at Brihadisvara Temple follow ancient Agamic traditions with great discipline and devotion. The day begins with early morning Abhishekam (sacred bathing of the Shiva Linga), followed by Alankaram (decoration), Deepa Aradhana, and chanting of Vedic hymns. Special poojas like Pradosham, Maha Shivaratri, and monthly Karthigai Deepam draw thousands of devotees. Watching these rituals makes me feel connected to an unbroken spiritual tradition that has flowed for centuries.Major festivals celebrated here include Maha Shivaratri, Arudra Darshan, Karthigai Deepam, and the annual temple Brahmotsavam. During these times, the temple comes alive with lamps, music, classical dance, and devotional energy. I feel the true soul of Tamil Shaivism during these festivals, where devotion, culture, and community merge beautifully.</t>
+  </si>
+  <si>
+    <t>https://www.tamilnadutourism.tn.gov.in/</t>
+  </si>
+  <si>
+    <t>Chengannur, Alappuzha District, Kerala, India</t>
+  </si>
+  <si>
+    <t>When I learned about Chengannur Mahadeva Temple, I felt that this temple speaks about divinity in its most natural and honest form. Situated in the heart of Kerala, this ancient temple is dedicated to Lord Shiva and Goddess Parvati, worshipped together as a divine family. What makes Chengannur deeply unique to me is how it embraces nature, human cycles, and spirituality as one inseparable truth.</t>
+  </si>
+  <si>
+    <t>When I learned about Chengannur Mahadeva Temple, I felt that this temple speaks about divinity in its most natural and honest form. Situated in the heart of Kerala, this ancient temple is dedicated to Lord Shiva and Goddess Parvati, worshipped together as a divine family. What makes Chengannur deeply unique to me is how it embraces nature, human cycles, and spirituality as one inseparable truth.Architecturally, the temple reflects traditional Kerala craftsmanship, built with laterite stone, wood carvings, and copper-plated roofs designed to harmonize with the region’s climate. The sanctum interiors are simple yet powerful, focusing attention on ritual and presence rather than ornamentation. I feel the architecture teaches that spiritual strength does not always need grandeur; sometimes silence itself becomes sacred.</t>
+  </si>
+  <si>
+    <t>Historically, Chengannur Mahadeva Temple has been a major Shaiva center in Kerala for centuries, mentioned in local legends and temple chronicles. The temple has witnessed social, cultural, and religious transformations while retaining its ancient customs. Its continued relevance shows how deeply rooted spiritual traditions can coexist with changing times.Spiritually, Chengannur Mahadeva Temple stands apart because it recognizes and honors natural biological cycles as divine processes. The temple became globally known for its association with the menstrual cycle of Goddess Parvati, which is viewed here not as impurity but as a sacred phenomenon. This aspect deeply resonates with me because it reflects how Indian spirituality once celebrated womanhood, fertility, and creation without shame or fear.</t>
+  </si>
+  <si>
+    <t>Daily rituals at the temple include Nirmalya Darshanam, Abhishekam, Usha Pooja, Ucha Pooja, and Athazha Pooja, performed strictly according to Kerala Tantric traditions. Special rituals are observed during important days like Pradosham and Shivaratri. For me, these rituals maintain a rhythm that aligns human life with cosmic order.The most significant festival celebrated here is Thiruvathira, dedicated to Lord Shiva, along with Shivaratri and Mandala season observances. During festivals, the temple becomes a space of collective devotion, music, lamps, and spiritual energy that feels deeply grounding and inclusive.</t>
+  </si>
+  <si>
+    <t>https://chengannurtemple.com/</t>
+  </si>
+  <si>
+    <t>Chidambaram, Cuddalore District, Tamil Nadu, India</t>
+  </si>
+  <si>
+    <t>Whenever I read about Chidambaram Nataraja Temple, I feel like it represents the very soul of Indian spirituality. Located in Tamil Nadu, this temple is dedicated to Lord Shiva in his cosmic dancer form, Nataraja, symbolizing the eternal rhythm of creation, preservation, and destruction. For me, Chidambaram is not just a place of worship, but a living expression of how the universe itself moves in divine harmony.</t>
+  </si>
+  <si>
+    <t>Chidambaram Nataraja Temple is one of the most ancient and sacred Shaiva temples in India, where Lord Shiva is worshipped as Nataraja performing the Ananda Tandava, the dance of bliss. The temple complex is vast and architecturally rich, with multiple prakaras, towering gopurams, sacred halls, and the famous Chitsabha where the Nataraja idol resides. What deeply moves me is how every space in this temple feels purposeful, guiding the devotee from the material world toward spiritual realization.Architecturally, the temple is a masterpiece of Dravidian design, adorned with four massive gopurams facing the cardinal directions, each carved with the 108 classical Bharatanatyam dance postures. The Chitsabha, built with wooden pillars and a golden roof, symbolizes the human heart where Shiva dances eternally. I feel the architecture itself teaches philosophy, turning stone, wood, and space into sacred knowledge.Culturally, Chidambaram stands as the sacred bridge between spirituality and classical Indian arts, especially dance and music. It reminds me that devotion does not always need words — sometimes movement, rhythm, and silence become prayer. The temple continues to inspire philosophers, artists, scientists, and devotees across the world.</t>
+  </si>
+  <si>
+    <t>Spiritually, Chidambaram is considered one of the Pancha Bhoota Sthalams, representing the element of Akasha (space or ether). The most profound concept here is the Chidambara Rahasyam, the “Secret of Chidambaram,” where Shiva is worshipped not only as a form but also as formless cosmic consciousness. This idea resonates deeply with me because it teaches that divinity exists beyond idols, within emptiness, awareness, and infinite space.Historically, Chidambaram Nataraja Temple has been revered for over a thousand years, patronized by great dynasties like the Cholas, Pallavas, and Pandyas. The Chola kings, especially, saw Nataraja as their personal deity and contributed extensively to the temple’s expansion. Its continuous worship across centuries shows how deeply this temple is woven into India’s spiritual and cultural identity.</t>
+  </si>
+  <si>
+    <t>Daily rituals at Chidambaram follow ancient Agamic traditions and include Abhishekam, Alankaram, Deeparadhana, and the unique unveiling of the Chidambara Rahasyam during poojas. Six daily worship services are performed with great precision and devotion. For me, these rituals feel like synchronized movements, echoing Shiva’s cosmic dance through disciplined human action.The most important festival celebrated here is Natyanjali, where classical dancers offer their art to Lord Nataraja. Other major festivals include Arudra Darshanam, Maha Shivaratri, and Brahmotsavam. During these times, the temple transforms into a vibrant center of devotion, music, rhythm, and spiritual celebration that feels both grand and deeply intimate.</t>
+  </si>
+  <si>
+    <t>https://hrce.tn.gov.in/hrcehome/index.php</t>
+  </si>
+  <si>
+    <t>Chottanikkara, Ernakulam District, Kerala, India</t>
+  </si>
+  <si>
+    <t>Whenever I read about Chottanikkara Bhagavathy Temple, I feel an intense sense of protection and compassion flowing through its history and beliefs. Located near Kochi in Kerala, this temple is dedicated to Goddess Bhagavathy, worshipped in her powerful yet motherly form. To me, Chottanikkara represents divine healing, where faith, psychology, and spirituality meet in the most humane way.</t>
+  </si>
+  <si>
+    <t>Chottanikkara Bhagavathy Temple is one of the most revered Shakti temples in South India, where the Goddess is worshipped in three forms across the day — Saraswati in the morning, Lakshmi at noon, and Durga in the evening. The temple complex is serene yet intense, with sacred groves, lamps, and ritual spaces designed to create an atmosphere of surrender and hope. I feel that every corner of this temple carries stories of personal struggles transformed through faith.Architecturally, the temple follows traditional Kerala style with tiled roofs, wooden structures, oil lamps, and minimal ornamentation. The sanctum is simple yet deeply powerful, emphasizing presence over grandeur. For me, the architecture reflects humility and grounded spirituality, reminding devotees that true strength lies in inner transformation.</t>
+  </si>
+  <si>
+    <t>Spiritually, Chottanikkara is renowned for its association with healing, especially for those believed to be affected by negative energies or mental distress. The Goddess here is seen as a compassionate protector who restores balance to the mind and soul. What deeply resonates with me is how this temple acknowledges human suffering without judgment and offers spiritual strength rather than fear-based rituals.Historically, Chottanikkara Bhagavathy Temple has evolved over centuries as a center of Shakti worship, absorbing local traditions and spiritual practices. The temple’s reputation as a healing center grew organically through lived experiences of devotees rather than royal patronage alone. This makes its history feel deeply human and authentic to me.</t>
+  </si>
+  <si>
+    <t>Daily rituals at the temple include Guruthi pooja, lighting of oil lamps, recitation of Devi mantras, and the famous evening worship at the Keezhkavu temple. These rituals are performed with discipline and compassion, focusing on restoration of mental and emotional balance. I feel these practices offer solace rather than intimidation, which is rare and meaningful.Major festivals celebrated here include Navaratri, Makom Thozhal, and Mandala season observances. During Navaratri, the temple becomes a vibrant center of devotion, music, and collective spiritual energy, reflecting the nurturing yet powerful nature of the Goddess.</t>
+  </si>
+  <si>
+    <t>https://www.chottanikkarabhagavathy.org/</t>
+  </si>
+  <si>
+    <t>Draksharamam village of Konaseema region, East Godavari district, Andhra Pradesh</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daksharamam Temple is located in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Draksharamam village of Konaseema region, East Godavari district, Andhra Pradesh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, surrounded by lush greenery, canals, and fertile lands formed by the Godavari River. This sacred town lies about 40 km from Rajahmundry and is well connected by road, making it one of the most spiritually significant Shaiva centers of coastal Andhra. The serene rural atmosphere, combined with ancient temple architecture, creates a powerful spiritual environment that immediately makes a devotee feel grounded and calm.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daksharamam is one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pancharama Kshetras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the five most powerful temples dedicated to Lord Shiva in Andhra Pradesh, and here Shiva is worshipped as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sri Bhimeswara Swamy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. According to ancient legends, this temple stands on the spot where a portion of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sati Devi’s body fell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after her self-immolation, making it a sacred Shakti Peetha as well. What deeply moves me about Daksharamam is how it unites both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shaiva and Shakta traditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Shiva is worshipped in the form of a massive crystal (spatika) lingam, and Goddess Parvati is revered as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manikyamba Devi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The temple’s towering gopuram, intricate stone carvings, and centuries-old inscriptions silently narrate stories of devotion, sacrifice, and divine grace.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, Daksharamam holds immense power because it is believed that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lord Shiva manifested here to pacify the destructive energy of Daksha Yagna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, restoring cosmic balance. The Shiva Lingam here is unique — it is said to grow in size over time and is partially enclosed to control its immense energy. Devotees believe that praying here removes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ego, pride, and ancestral karmic blocks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, especially those related to family lineage and responsibilities. Worship at Daksharamam is considered highly beneficial for inner stability, marital harmony, and spiritual awakening, as the temple represents the divine union of Shiva (consciousness) and Shakti (energy).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily rituals at Daksharamam follow traditional Shaiva Agama practices, beginning with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Suprabhata Seva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and early morning </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abhishekam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using sacred substances like milk, honey, water, and sandalwood paste. This is followed by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alankara Seva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Archana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Naivedyam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, offered with Vedic chants that fill the temple with powerful vibrations. Special Abhishekams on Mondays, Pradosham days, Maha Shivaratri, and Karthika Masam draw thousands of devotees. The worship of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manikyamba Devi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is performed with equal importance, emphasizing the balance of masculine and feminine divine energies.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://eastgodavari.ap.gov.in/temples/lord-bhimeswara-swami-temple-draksharama/</t>
+  </si>
+  <si>
+    <t>Dharmasthala town of Dakshina Kannada district, Karnataka</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dharmasthala Temple is one of the most spiritually powerful and socially inspiring temples I have come across in India, dedicated to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lord Manjunatha Swamy (Lord Shiva)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Located in Karnataka, this sacred kshetra is not only a place of worship but also a living symbol of dharma, compassion, and service, where devotion is practiced through both prayer and righteous living.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dharmasthala is a unique and extraordinary temple where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lord Shiva is worshipped as Lord Manjunatha Swamy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, yet the temple administration is carried out by a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jain Heggade family</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, reflecting India’s timeless tradition of religious harmony. This sacred kshetra has been a center of dharma, charity, and justice for centuries. According to legend, the local chieftain was divinely instructed by guardian spirits (Dharma Daivas) to dedicate his life and land to the service of Lord Shiva, leading to the establishment of this temple. What truly inspires me about Dharmasthala is that it is not just a place of worship, but a living institution of values — where faith, service, and righteousness walk hand in hand.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, Dharmasthala represents the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ideal balance between devotion, morality, and social responsibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Devotees believe that Lord Manjunatha Swamy here grants relief from suffering, clarity in life decisions, and strength to walk the path of righteousness. The temple is also famous for its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dharma Peetha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, where people come seeking justice and guidance, trusting that truth prevails under divine presence. Worship at Dharmasthala is believed to cleanse karmic burdens, especially those related to injustice, dishonesty, and moral conflicts. To me, this temple stands as a powerful reminder that spirituality is not just prayer, but living ethically every single day.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily rituals at Dharmasthala Temple begin early in the morning with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Suprabhata Seva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> followed by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abhishekam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to Lord Manjunatha Swamy using sacred items such as water, milk, and sandalwood paste. This is followed by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alankara Seva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Archana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maha Naivedyam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, performed with strict adherence to Shaiva traditions. Special poojas are conducted on Mondays, Pradosham days, Maha Shivaratri, and during annual festivals like Laksha Deepotsava. Alongside rituals, the temple is world-renowned for its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annadanam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, where thousands of devotees are served free meals daily, reinforcing the belief that serving humanity is equal to serving God.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.shridharmasthala.org/</t>
+  </si>
+  <si>
+    <t>Guruvayur, Thrissur District, Kerala, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Guruvayur Temple is one of the most beloved and spiritually intense Krishna temples in India, where devotion feels deeply personal and alive. Whenever I think of pure bhakti, innocent faith, and child-like surrender to God, Guruvayur immediately comes to my mind. Dedicated to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lord Guruvayurappan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a child form of Lord Krishna, this temple is often lovingly called the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Dwarka of the South.”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Guruvayur Temple has a sacred history that dates back thousands of years and is deeply rooted in Vaishnavite tradition. According to legend, the idol worshipped here was originally worshipped by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lord Vishnu in Vaikuntha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, later by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lord Brahma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and finally installed at Guruvayur by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guru (Brihaspati)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vayu (the Wind God)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — from whom the name </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guruvayur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is derived.The temple follows strict Kerala temple customs, with rituals performed according to Tantric and Vedic traditions. The sanctum houses a beautiful four-armed idol of Lord Krishna holding the conch, discus, mace, and lotus. Guruvayur is also famous for its elephant sanctuary Punnathur Kotta, where temple elephants are cared for with devotion. Over centuries, this temple has remained a powerful center of devotion, discipline, and divine grace.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, Guruvayur is believed to be a place where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Krishna listens directly to the hearts of devotees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It is said that prayers offered here with true faith are never unanswered. The temple holds immense importance for devotees seeking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>child blessings, marriage harmony, relief from suffering, and spiritual purification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Many saints, poets, and devotees have experienced divine visions here, making Guruvayur a living embodiment of bhakti yoga — the path of devotion.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The temple follows an intense and disciplined daily ritual schedule, beginning before dawn. Major rituals include </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nirmalya Darshanam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usha Pooja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pantheeradi Pooja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ucha Pooja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Athazha Pooja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. One of the most famous offerings is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thulabharam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, where devotees offer items equal to their body weight as an act of surrender. The temple strictly follows traditional dress codes and ritual purity, preserving its ancient sanctity even today.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://guruvayurdevaswom.in/#/login</t>
+  </si>
+  <si>
+    <t>Madurai, Tamil Nadu, India</t>
+  </si>
+  <si>
+    <t>Whenever I think about divine feminine power expressed through art, devotion, and architecture, Meenakshi Amman Temple in Madurai immediately comes to my mind. This sacred temple is dedicated to Goddess Meenakshi, a powerful incarnation of Parvati, and Lord Sundareswarar, a beautiful form of Shiva. More than just a temple, it feels like a living spiritual city where devotion, culture, and history breathe together every single day.</t>
+  </si>
+  <si>
+    <t>Meenakshi Amman Temple is one of the most ancient and architecturally magnificent temples in India, with roots going back over two millennia. The present structure was largely expanded by the Nayak rulers between the 16th and 17th centuries. The temple complex is vast and maze-like, filled with halls, corridors, shrines, tanks, and towering gopurams. What moves me deeply is how the entire temple revolves around Goddess Meenakshi, symbolizing the central role of feminine divinity in South Indian spiritual traditions.Architecturally, Meenakshi Amman Temple is a masterpiece of Dravidian temple design. The complex has 14 massive gopurams, each covered with thousands of colorful, intricately carved sculptures depicting gods, goddesses, demons, celestial beings, and mythical stories. The Hall of a Thousand Pillars amazes me every time I learn about it — each pillar is sculpted with precision and symbolism. The temple feels like a visual scripture carved in stone and color.Culturally, Meenakshi Amman Temple is inseparable from Tamil identity. It has inspired classical dance, Carnatic music, poetry, and temple arts for centuries. The temple festivals, rituals, and traditions continue to shape the social and spiritual life of the city. To me, this temple feels like the soul of Tamil Nadu itself.</t>
+  </si>
+  <si>
+    <t>Historically, Meenakshi Temple has been the spiritual and cultural heart of Madurai for centuries. It flourished under the Pandya dynasty and later under the Nayak rulers, who transformed it into the architectural marvel we see today. This temple was not only a place of worship but also a center for learning, music, dance, and Tamil literature. For me, it stands as proof that Indian temples were once complete ecosystems of knowledge and culture.Spiritually, this temple represents the sacred union of Shakti and Shiva — energy and consciousness. Goddess Meenakshi is worshipped as a self-born queen with three breasts, symbolizing supreme power and sovereignty, while Lord Sundareswarar represents divine beauty and balance. Standing inside this temple, I feel empowered, protected, and deeply connected to the idea that feminine energy is not secondary but central to cosmic order and creation.</t>
+  </si>
+  <si>
+    <t>Daily rituals at Meenakshi Amman Temple are deeply symbolic and emotionally moving. The most beautiful ritual is the nightly ceremony where Lord Sundareswarar is taken in a procession to Goddess Meenakshi’s shrine, symbolizing divine marital harmony. Abhishekam, Alankaram, Deeparadhana, and Vedic chanting are performed multiple times a day. Witnessing these rituals makes me feel part of a timeless devotional rhythm that has never been broken.The grandest festival here is the Meenakshi Thirukalyanam, celebrating the divine marriage of Meenakshi and Sundareswarar during the Chithirai Festival. The temple becomes a sea of devotion, music, colors, and emotion. Other major festivals include Navaratri, Aavani Moola Utsavam, and Float Festival. These celebrations make me realize how deeply spirituality is woven into everyday life in Madurai.</t>
+  </si>
+  <si>
+    <t>https://maduraimeenakshi.hrce.tn.gov.in/hrcehome/index_temple.php?tid=31962</t>
+  </si>
+  <si>
+    <t>Chamundi Hills, Mysuru (Mysore), Karnataka, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chamundeshwari Temple is one of those places where strength, protection, and divine feminine energy can be felt the moment you think about it. To me, this temple represents </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shakti in her most fearless form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Perched majestically on the Chamundi Hills overlooking Mysuru, the temple is dedicated to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Goddess Chamundeshwari</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, an incarnation of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Durga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, who symbolizes victory of good over evil.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Chamundeshwari Temple has a rich history that spans over a thousand years and is deeply associated with the royal legacy of Mysuru. The temple gained prominence under the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wodeyar dynasty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, who worshipped Goddess Chamundeshwari as their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>family deity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The present structure showcases classic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dravidian architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with a towering gopuram adorned with intricate carvings of deities and mythological figures.Inside the sanctum, the Goddess is depicted with eight arms, holding weapons and symbols of power, seated majestically after slaying the demon Mahishasura. A massive statue of Mahishasura stands near the temple, reminding devotees of the eternal triumph of dharma. The temple is accessible either by climbing 1,008 sacred steps or by road, making the pilgrimage both spiritual and physically symbolic.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, Chamundeshwari Temple is a powerful center of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shakti worship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The Goddess here is believed to protect devotees from fear, injustice, and negative forces. Worshipping Chamundeshwari is said to grant </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>courage, clarity, and inner strength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, especially during difficult phases of life. For me, this temple stands as a reminder that divine feminine energy is not gentle alone — it is also fierce, protective, and transformative.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The temple follows traditional daily rituals beginning with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abhisheka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alankara Seva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the early morning. Regular </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Archana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maha Mangalarathi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and special poojas on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tuesdays and Fridays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> draw large numbers of devotees. During </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navaratri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the temple becomes a vibrant spiritual center, with grand celebrations, special decorations, and processions honoring the Goddess in her various forms.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://chamundeshwaritemple.in/</t>
+  </si>
+  <si>
+    <t>virupaksha.html</t>
+  </si>
+  <si>
+    <t>Sri Hampi Virupaksha Temple</t>
+  </si>
+  <si>
+    <t>Hampi, Vijayanagara district, Karnataka, India</t>
+  </si>
+  <si>
+    <t>When I think of a temple that has silently witnessed the rise and fall of empires yet continues its worship uninterrupted, Virupaksha Temple in Hampi stands tall in my heart. Located on the banks of the Tungabhadra River, this temple feels ancient, grounded, and immensely powerful. Walking through its corridors in my imagination itself gives me the feeling of stepping into a living chapter of Indian history and devotion.</t>
+  </si>
+  <si>
+    <t>Virupaksha Temple is one of the oldest functioning temples in India, with its origins dating back to at least the 7th century CE. Dedicated to Lord Virupaksha, a fierce and ancient form of Shiva, the temple later became the spiritual nucleus of the Vijayanagara Empire. Unlike many ruined structures of Hampi, this temple continues daily worship, making it a bridge between the ancient past and the present. To me, this continuity itself feels sacred.Architecturally, Virupaksha Temple is a classic example of Dravidian temple design layered with Vijayanagara aesthetics. The most striking feature is the towering eastern gopuram, built in the 15th century, which dominates the Hampi skyline. Inside, the pillared halls, stone ceilings, and sculptures narrate stories of gods, devotees, and celestial beings. One fascinating detail is the temple’s natural pinhole camera effect, where the image of the gopuram is projected upside down inside a dark chamber — a silent blend of science and spirituality that amazes me every time.</t>
+  </si>
+  <si>
+    <t>Historically, Virupaksha Temple was the heart of the Vijayanagara Empire, one of the greatest Hindu kingdoms in Indian history. Kings, scholars, dancers, and devotees once gathered here in massive numbers. Even after the devastating fall of Vijayanagara in the 16th century, this temple survived destruction and continued worship, standing as a symbol of resilience. For me, it reflects how faith can outlast political power.Spiritually, Virupaksha represents Shiva as the eternal protector and cosmic force. The temple is closely associated with Goddess Pampadevi, a local form of Parvati, whose union with Virupaksha symbolizes divine harmony rooted in the land itself. Standing for timeless Shaiva devotion, this temple makes me feel that spirituality does not need grandeur alone — it needs continuity, faith, and presence.</t>
+  </si>
+  <si>
+    <t>Daily rituals at Virupaksha Temple are performed with traditional Shaiva practices including Abhishekam, Alankaram, and Deeparadhana. The sound of bells, Vedic chants, and the presence of devotees create a calm yet powerful atmosphere. What touches me deeply is that these rituals have continued for centuries without interruption, making every prayer feel connected to countless prayers before it.The most important festival celebrated here is the annual chariot festival dedicated to Virupaksha and Pampadevi. During this time, the temple becomes vibrant with processions, music, and devotion. Maha Shivaratri is also celebrated with great reverence, drawing devotees from across Karnataka and beyond. These festivals make the temple feel alive, not frozen in history.</t>
+  </si>
+  <si>
+    <t>https://karnatakatourism.org/en/attractions/virupaksha-temple/</t>
+  </si>
+  <si>
+    <t>/south/images/virupaksha.jpg</t>
+  </si>
+  <si>
+    <t>Bhojpur village, Raisen district, Madhya Pradesh, India.                                    Found but forgotten/incomplete</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bhojeshwar Temple is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>incomplete 11th-century Shiva temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> built by the Paramara king Bhoja, who reigned from around 1010 to 1055 CE. Despite its unfinished state, it is considered a significant historical and spiritual site. The temple is renowned for the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>massive single-rock Shiva lingam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the sanctum and is valued not only for its religious importance but also for the rare insights it provides into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medieval temple construction techniques and architectural planning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The temple’s sanctum houses a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.5-foot-high Shiva lingam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> carved from a single rock, which remains the central point of worship. Surrounding the sanctum are partially completed mandapas, large granite blocks, and unfinished pillars that clearly illustrate the intended grandeur of the structure. Unique to this temple are the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>engraved architectural drawings and mason’s marks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on nearby rocks, showing the exact plans, measurements, and construction methods that were intended. These features make Bhojeshwar Temple an extraordinary example of medieval Indian temple engineering, where visitors can observe the planning process rather than just the completed shrine.Bhojeshwar Temple exemplifies North Indian Nagara style architecture, featuring a large sanctum to house the enormous Shiva lingam and mandapas planned for congregational and ceremonial purposes. The incomplete pillars, halls, and engraved inscriptions provide rare insight into the step-by-step temple construction process of the 11th century. The temple’s unique architectural elements, particularly the rock-carved construction plans and mason’s marks, make it an invaluable site for both architects and historians studying medieval Indian architecture.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">King Bhoja, a celebrated patron of the arts, commissioned this temple to honor Lord Shiva. Though incomplete, the temple is spiritually important, and festivals such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maha Shivaratri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attract devotees who perform traditional rituals and prayers. Historically, the site offers scholars a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>direct glimpse into 11th-century temple architecture, design principles, and construction processes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which are rarely recorded in other temples. The unfinished nature of the temple also conveys a philosophical reflection on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impermanence of human endeavors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, combining spiritual reverence with historical curiosity.Bhojeshwar Temple is unique because it remains unfinished, providing visible evidence of construction techniques and architectural planning. Its engraved architectural plans and mason’s marks are rare among Indian temples, offering a live insight into 11th-century temple engineering. The massive single-rock Shiva lingam and the combination of spiritual, historical, and scholarly significance make it an extraordinary monument in India’s temple heritage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Due to its incomplete status, daily rituals at the temple are limited, but worship is observed during </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>major festivals like Maha Shivaratri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, when devotees perform </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abhishekam (ritual bathing)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and offer prayers to the Shiva lingam. While not a fully active temple, these periodic rituals maintain its spiritual relevance.</t>
+    </r>
+  </si>
+  <si>
+    <t>No official  site available</t>
+  </si>
+  <si>
+    <t>Mitaoli village, Morena district, Madhya Pradesh, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Chausath Yogini Temple in Mitaoli is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11th-century circular temple dedicated to the worship of 64 Yoginis and Shiva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, constructed during the reign of Kachchhapaghata king Devapala around 1055–1075 CE. It is one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>well-preserved Yogini temples in India</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and stands out for its unique circular hypaethral design, which is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open to the sky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, unlike conventional enclosed Indian temples. The temple was historically associated not only with spiritual practices but also with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>education in astrology and mathematics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, reflecting the integration of scholarly and religious life in medieval India.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Built on a hill approximately 100 feet high, with 100 steps leading to the entrance, the temple has a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>circular layout with a radius of 170 feet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The outer circular wall originally contained </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>65 small chambers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, intended for 64 Yoginis and a central goddess (Devi), while the central open mandapa is dedicated to Shiva. Each chamber had a flat roof and pilasters, and the outer walls were decorated with statues of couples flanked by maidens, although most of these are now damaged or lost. The central shrine’s roofing slabs were perforated to channel rainwater into an underground tank. Over time, many of the original Yogini images were replaced by Shiva idols. Remarkably, the design of the Parliament building in India is said to have been inspired by this temple’s circular plan, demonstrating its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>architectural influence beyond its spiritual function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.The Chausath Yogini Temple is unique for its circular, hypaethral design, rare among Indian temples, and for its dual role as a spiritual and educational center. Its 65 chambers for Yoginis, the open central mandapa, and perforated roofing for water drainage distinguish it architecturally, while its connection to astrology, mathematics, and the design inspiration for India’s Parliament building highlight its broader cultural significance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The temple is historically significant as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>place of worship for Yoginis and Shiva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, reflecting esoteric Tantric practices where Yoginis were believed to possess mystical powers. It also served as an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>educational center for astrology and mathematics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, particularly connected to solar transits, illustrating the temple’s broader role in knowledge dissemination. Declared a protected monument by the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Archaeological Survey of India</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in 1951, it has remained a symbol of spiritual devotion and scholarly heritage. Festivals and rituals related to Shiva and Tantric traditions would have been central, although most daily rituals today are limited due to the site’s historical status.The temple is a rare example of hypaethral circular architecture, with the entire structure open to the sky, allowing direct communion with the Yoginis. Its 65 surrounding chambers, central mandapa, and perforated roofing system demonstrate advanced planning for water management and ceremonial use. The temple’s design emphasizes symmetry, proportion, and ritual functionality, which not only inspired later structures like the Indian Parliament but also showcases the sophistication of 11th-century temple architecture in India. The outer wall’s original decorations and the structural layout provide insight into both artistic and functional priorities of medieval temple builders.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Due to its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>historical and partially preserved status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, daily worship is limited, though special rituals and festivals related to Shiva or Yoginis may be performed occasionally by local priests or during heritage-focused celebrations. Historically, the temple would have hosted Tantric rites and astronomical observations aligned with solar movements, integrating spiritual and scientific practices.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gandikota Madavaraya Temple</t>
+  </si>
+  <si>
+    <t>Gandikota Fort, Kadapa district, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Madhavaraya Temple is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16th-century Hindu temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dedicated to Lord Krishna, locally revered as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Madhava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Situated within the historic Gandikota Fort, the temple is a significant monument of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vijayanagara period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and is recognized as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monument of National Importance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by the Government of India. The temple is an important example of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vijayanagara-era architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, reflecting both the artistic and religious grandeur of the period, and remains a focal point for historical and spiritual exploration in the region.Madhavaraya Temple is unique due to its integration of devotional, ceremonial, and practical spaces within a fortified complex, its Vijayanagara-style carvings and mandapa planning, and the presence of multiple mandapas with specialized functions. Its combination of historical inscriptions, ornamental craftsmanship, and functional design distinguishes it from other temples of the same era and highlights the sophistication of 16th-century South Indian temple architecture.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The temple is set within a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rectangular courtyard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> surrounded by a prakara wall, with an eastern gopura as the main entrance and smaller entrances on the other three sides. The courtyard contains a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pillared cloister and central mandapas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, including a six-pillared mandapa in front of the kitchen hall, a wedding hall with sixteen pillars, and a northern mandapa likely associated with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navagraha or festival rituals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The pillars and ceilings are adorned with intricate carvings of creepers, lotus petals, floral motifs, and depictions of deities, including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vishnu, Lakshmi, Ganapati, Surya, and Yoga Narasimha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, along with decorative vyala figures and female attendants. The kitchen hall and other mandapas were thoughtfully designed with ventilation gaps and decorative motifs, illustrating the functional and ceremonial planning of the temple complex. The temple’s garbha-griha is oblong and may have originally housed images of Alvars or Saptarishis, complementing the worship of Lord Krishna as Madhavaraya.The temple is a prime example of Vijayanagara-style architecture, characterized by elaborately carved pillars, multi-level gopuras, and ornate mandapas. The gopura, although partially damaged at the top shikhara, features carvings of male and female figures, door-keepers, floral motifs, and intricate ceiling medallions. The design of the mandapas, kitchen hall, and wedding hall shows careful planning for both ceremonial functions and practical needs, while the rectangular courtyard and surrounding cloisters highlight symmetry and spatial organization. The combination of ornamental detail, functional planning, and devotional symbolism makes the temple architecturally significant among Vijayanagara monuments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Madhavaraya Temple was constructed in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first quarter of the 16th century</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> under the Vijayanagara dynasty, as confirmed by inscriptions mentioning devotees such as Papa Timmaraju offering garlands to Madhava-raya. The temple represents the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integration of devotion, community ritual, and festival celebration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, serving as a center for worship and religious gatherings. Its location within Gandikota Fort emphasizes the interconnection of spiritual and royal authority, reflecting the Vijayanagara rulers’ patronage of art, religion, and architecture. The temple remains spiritually significant for devotees of Krishna, and historical inscriptions provide insight into local devotional practices and offerings during the 16th century.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily rituals are not extensively documented, but the temple would have traditionally hosted </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>poojas and festival rituals dedicated to Krishna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, including garland offerings, ceremonial worship, and seasonal festivals, consistent with Vijayanagara-era temple practices. Its design facilitated gatherings for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kalyana-mandapas (wedding rituals) and Navagraha ceremonies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, indicating an active ritual life historically.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kanchipuram, Tamil Nadu, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Kailasanathar Temple, also called the Kailasanatha Temple, is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pallava-era historic Hindu temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dedicated to Lord Shiva and is considered one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oldest surviving monuments in Kanchipuram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, built around </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>700 CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by King Narasimhavarman II of the Pallava dynasty, with later additions by Mahendravarman III. This temple represents a key landmark in early </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dravidian architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and serves as a significant center of Shaivite worship, historical scholarship, and art appreciation. Its longevity and intricate design make it an enduring symbol of Tamil religious and cultural heritage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The temple is designed on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>square plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and comprises a mukha-mandapa (entrance hall), a maha-mandapa (gathering hall), and a primary garbha-griha (sanctum) crowned with a four-storey vimana. The main sanctum is surrounded by nine smaller shrines, seven outside and two flanking the entrance, all dedicated to various forms of Shiva. The outer walls of the temple’s prakara (courtyard) contain cells that hold 58 additional small shrines, forming a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>circumambulatory passage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> around the main shrine. The temple walls are adorned with intricate carvings depicting Hindu deities, mythological scenes, and motifs from Shaivism, Vaishnavism, Shaktism, and Vedic traditions. Early </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>murals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the inner walls of the courtyard cells represent some of the finest examples of 7th–8th century Tamil mural art, reminiscent of the Ajanta Caves and contemporaneous Vaikunthaperumal temple paintings. Numerous inscriptions in early scripts are found on the walls, providing rich historical and epigraphical insight into the Pallava period.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kailasanathar Temple was built in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smartha tradition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, promoting worship of Shiva along with other deities such as Vishnu, Surya, Devi, and Ganesha. It exemplifies early temple planning and Shaivite devotion in South India, serving both as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>place of active worship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and as a repository of Pallava art and inscriptions. Historically, it is significant for its role in consolidating Pallava religious authority and fostering the development of Dravidian temple architecture. The temple remains a major pilgrimage site and a key spiritual center in Kanchipuram, attracting devotees and scholars alike.The temple is renowned for its early Dravidian architectural style, characterized by the vimana, square sanctum, and the arrangement of shrines and cells. Its 58 small shrines integrated into the high compound walls form a unique circumambulatory structure, while the intricate sculptures and mural art highlight advanced artistic skills. The temple’s carvings depict both divine and everyday themes, showing a combination of religious devotion and attention to detail in ornamentation. The construction techniques, layout, and artistry make Kailasanathar Temple a precursor to later South Indian temples, influencing Dravidian architecture for centuries.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The temple is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>active place of worship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with regular poojas and rituals conducted according to traditional Shaivite practices. Devotees perform </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abhishekam, Alankaram, and Deeparadhana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> daily, along with festivals that follow the Tamil religious calendar, maintaining the temple’s spiritual relevance over more than 1,300 years.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ghanpur, near Warangal, Telangana, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kota Gullu, popularly known as the Ghanpur Temples, is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>group of 12th-century stone temples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> constructed during the reign of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>King Ganapatideva of the Kakatiya dynasty (1199–1260 CE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Located about 9 km northwest of the famous Ramappa Temple in Palampet, these temples were built to honor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lord Shiva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and represent one of the finest examples of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kakatiya-era architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Telangana. The complex holds historical, cultural, and spiritual significance, illustrating the region’s rich temple-building traditions before invasions and natural calamities caused widespread damage.Kota Gullu is unique due to its clustered Kakatiya-era Shiva temples, intricate carvings and sculptures, and its historical endurance despite invasions and natural disasters. Its combination of architectural sophistication, sculptural detail, and historical inscriptions makes it a rare and invaluable cultural heritage site in Telangana.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Kota Gullu complex originally comprised </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>around 22 temples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, varying in size and design, all enclosed within a double-walled stone perimeter. The main temple, dedicated to Shiva, is the most prominent, with an additional north-facing Shiva shrine mirroring its appearance. The temples feature </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garbhagriha (sanctum), antarala (vestibule), and sabha mandapa (assembly halls)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with exquisitely carved porticos. The mandapas and entrances are adorned with mythical figures like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gaja Kesari</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (half-human, half-lion riding an elephant) and horse-headed lion figures, while sculptures of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nandi, dancers, musicians, decorative ceilings, and bas-reliefs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enrich the temple grounds. Numerous statues discovered in the vicinity have been preserved for visitors, highlighting the intricate craftsmanship of the Kakatiya period.Kota Gullu exemplifies Kakatiya architectural excellence, with intricately carved stone walls, elaborate mandapas, and ornamental porticos. The assembly halls and Sabha mandapas showcase detailed sculptures of mythical creatures and divine motifs. The craftsmanship of madanikas (sculpted female attendants), decorative ceilings, and bas-reliefs underscores the artistic and religious significance of the temple complex. The use of double-walled enclosures for protection and the strategic layout of multiple shrines within the complex reflect careful planning and temple design innovations of the 12th century.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kota Gullu was commissioned by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>King Ganapatideva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and served as an important Shaivite center in the 13th century. Historical inscriptions on the temple mention </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ganapathi Reddy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a devotee who donated land and installed Lord Ganapateshwara during Ganapatideva’s reign (1234–35 CE). The temple suffered significant damage from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invasions by Muslim armies between the 14th and 16th centuries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and possibly a major </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>earthquake in the 17th century</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, yet it remains a testament to the spiritual devotion, historical continuity, and cultural sophistication of the Kakatiya dynasty.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">While Kota Gullu is primarily a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>historical monument today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, occasional worship and rituals are performed by local devotees. The temples are open for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tourism and pilgrimage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with preservation efforts maintaining the sanctity and accessibility of the complex.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mahabalipuram (Mamallapuram), Tamil Nadu, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Seven Pagodas of Mahabalipuram refers to the legendary group of temples along the Coromandel Coast, with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shore Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> being the only surviving structure above water. Believed to have been constructed during the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pallava dynasty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, under kings </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mahendravarman I and Narasimhavarman I (7th–8th century CE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, these temples formed a flourishing coastal city known for its rock-cut architecture and monumental shrines. The “Seven Pagodas” name has persisted in Indian and European accounts for over a millennium, symbolizing both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myth and historical fascination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, as six of the temples are believed to have been submerged due to storms and coastal erosion, creating a legendary underwater heritage.The Seven Pagodas are unique for their legendary submergence, combination of surviving and lost temples, early Pallava architectural style, and coastal rock-cut artistry. The interplay of myth, history, and archaeology, along with the Shore Temple’s enduring presence, makes this site one of India’s most fascinating cultural and spiritual landmarks, bridging legend with tangible heritage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Shore Temple, the surviving pagoda, stands on a rocky outcrop and is built in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dravidian style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, primarily with granite blocks. The site once featured </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rathas (chariot-shaped monolithic temples), cave temples, and monasteries (viharas)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, reflecting the Pallava focus on both devotion and learning. The temples were richly adorned with carvings of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hindu deities, mythological narratives, and ornamental motifs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, including depictions of Vishnu, Shiva, and their avatars. According to local legend and historical accounts, six other temples were submerged during great storms, leaving only the Shore Temple visible, while remnants of the lost pagodas can sometimes be seen beneath the waves during low tide.The Seven Pagodas demonstrate early Dravidian temple architecture with a combination of rock-cut rathas, monolithic shrines, and structural temples. The Shore Temple features a rectangular plan, vimana (tower), mandapa (hall), and garbhagriha (sanctum), showcasing precise stone craftsmanship. The partially submerged temples highlight engineering and artistic ingenuity of the Pallavas, including alignment with coastal geography and enduring carvings despite centuries of exposure to the sea. The site remains an architectural benchmark for understanding South Indian temple evolution.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Seven Pagodas were a major </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shaivite and Vaishnavite center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in ancient times, serving as a hub for worship, learning, and cultural activities. Historical accounts suggest that the temples were patronized by the Pallava kings to demonstrate political power and spiritual devotion. The site gained legendary status due to the stories of submergence, attributed in folklore to the god </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Indra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, who supposedly sank the temples to protect or punish. The temples were documented by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>European explorers such as Marco Polo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and astronomers like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>John Goldingham</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, reinforcing their global cultural significance. Today, Mahabalipuram is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNESCO World Heritage Site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, attracting pilgrims, historians, and tourists alike.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Shore Temple remains an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>active site of worship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with Shaivite and Vaishnavite rituals conducted daily. Festivals such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mahashivaratri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vaikunta Ekadasi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are celebrated with devotion. The submerged temples, however, are not accessible, and rituals are limited to the surviving pagoda.</t>
+    </r>
+  </si>
+  <si>
+    <t>Inavolu village, Wardhannapet mandal, Hanamkonda district (near Warangal), Telangana, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Mallikarjuna Temple at Inavolu, also known locally as the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mallanna Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inavolu Mallikarjuna Swamy Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ancient 12th-century Shaivite shrine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> built during the early era of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kakatiya dynasty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It stands approximately 16–18 km from the historic city of Warangal and is recognized as one of the region’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>significant early medieval temples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, anchoring both religious devotion and cultural identity among local communities. Constructed under the patronage of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ayyanna Deva, a minister in the Kakatiya court</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the temple’s longevity reflects sustained worship, community support, and regional heritage spanning centuries.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Mallikarjuna Temple features a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rectangular plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> centered around the sanctum (garbhagriha) housing the presiding deity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sri Mallikarjuna Swamy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a fierce warrior manifestation of Lord Shiva known as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mallanna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mylarudeva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, often depicted with multiple arms holding traditional Shaivite weapons and symbols. The shrine also venerates his consorts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Golla Kethamma and Balija Medalamma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, representing the pastoral and mercantile communities that historically patronized the temple. The temple complex includes an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>antarala (vestibule), ardhamandapa (anteroom), and a large nritya mandapa (dance/assembly hall)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> supported by numerous intricately carved pillars, demonstrating early Kakatiya architectural planning and ceremonial space design. It is enclosed within a sacred prakara (courtyard) with entrance gateways marked by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ornamental Keerthi Thoranams (victory arches)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, two of which remain intact while fragments of a third were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rediscovered and restored in recent years</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, reflecting both historical loss and archaeological revival.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Mallikarjuna Temple has been a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>major center of Shaivite worship and socio-religious life</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in northern Telangana for centuries. Built in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kakatiya period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when Shaivism deeply influenced local politics and culture, the temple served not only as a place of devotion but also as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>community hub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for rituals, festivals, and collective identity. The temple’s legend celebrates Lord Mallanna as a divine protector who vanquishes adversity, a belief that continues to draw devotees seeking blessings for prosperity, protection, and fulfillment of wishes. Annual celebrations like the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inavolu Mallanna Jatara (Brahmotsavam)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> beginning from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bhogi/Sankranti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and culminating around </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ugadi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attract </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hundreds of thousands of devotees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, who carry traditional offerings and participate in rituals that reinforce regional religious continuity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">At present, the Mallikarjuna Temple remains an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>active place of worship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with priests performing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daily poojas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abhishekam, Naivedya (food offerings), and Aarti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, invoking Shiva’s blessings according to Shaivite tradition. Rituals often reflect local customs — such as offerings of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>turmeric paste (Bandari)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bonam (earthen pots with cooked rice and jaggery)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — and are observed especially during the major annual </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inavolu Mallanna Jatara</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, where collective prayers, processions, trance dances, and cultural performances integrate religious practice with communal celebration.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mattan, near Anantnag in the Kashmir Valley, Jammu &amp; Kashmir, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Martand Sun Temple stands as one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>most iconic and ancient Hindu temple ruins in northern India</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, perched on a plateau near the city of Anantnag in the Kashmir Valley. It was constructed in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8th century CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> under the patronage of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>King Lalitaditya Muktapida of the Karkota dynasty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and was dedicated to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surya (Martand)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the Sun God, reflecting the deep spiritual reverence for solar worship in early medieval Hindu culture. Over the centuries, the temple has become emblematic of Kashmir’s rich architectural and spiritual history, inviting historians, archaeologists, pilgrims, and travelers alike to explore its imposing ruins and atmospheric setting overlooking the valley.The Martand Sun Temple is unique for being one of the earliest and grandest Sun temples built in India, combining diverse architectural influences with traditional Hindu symbolism to honor Surya. Its colonnaded peristyle courtyard with numerous surrounding shrines, elevated plateau location, and fusion of styles that reached beyond regional norms make it an exceptional example of ancient Indian temple architecture. The fact that the temple was destroyed in the 15th century yet still survives as a monumental ruin adds to its historical allure, blending legend, spirituality, and archaeological intrigue in a site that continues to captivate scholars, devotees, and heritage travelers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Though largely in ruins today, the Martand Sun Temple was originally an expansive stone complex built of hard limestone and granite, occupying an extensive rectangular courtyard that measured approximately </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>220 feet in length by 142 feet in breadth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>central shrine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, dedicated to Surya, was surrounded by what scholars believe were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>84 smaller shrines or subsidiary cells</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, arranged in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colonnaded peristyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that would have created a powerful architectural and spiritual ensemble. Intricate carvings of deities, celestial beings, mythological scenes, and ornamental motifs adorned the walls and pillars, demonstrating the high level of craftsmanship achieved during its construction. Its elevated location on a plateau allowed sunrise light to illuminate the sanctum in symbolic homage to the Sun God, capturing both celestial alignment and ritual significance.Architecturally, the Martand Sun Temple represents a unique blend of styles that includes influences from Gandharan, Gupta, Chinese, Greek, and Roman design elements integrated into a traditional Hindu temple layout, making it a rare example of cultural and artistic synthesis in early medieval India. The temple’s vast colonnaded courtyard, numerous fluted stone columns, and raised central sanctum reflect both sophisticated engineering and aesthetic vision. Its peristyle arrangement, without arches or vaults, allowed expansive open space and created a monumental forum for worship and ritual procession, while still emphasizing Surya’s cosmic role. The use of local stone and the interplay of light and shadow across the ruins continue to attract architectural scholars and heritage enthusiasts exploring ancient temple construction techniques in seismic and climatic conditions unique to the Kashmir Valley.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The temple’s dedication to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, an ancient and revered deity in Hinduism symbolizing light, life, and cosmic order, made it a major center for solar worship in its heyday. Built by a powerful ruler of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Karkota dynasty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, it reflected royal devotion as well as the spiritual ethos of the period. Historical accounts and local traditions suggest that the temple was so </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grandly constructed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that it remained a celebrated monument for centuries. However, in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>early 15th century CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, it was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>destroyed on the orders of Sultan Sikandar Shah Miri (Sikandar Butshikan)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, who sought to dismantle major Hindu shrines in the region. Despite its destruction, the ruins have survived and continue to testify to the temple’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>historical importance and spiritual legacy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Today, the temple does not host </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daily rituals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the traditional sense, as it remains a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ruined and protected archaeological monument</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. However, the site occasionally sees </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heritage pujas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and observances performed by devotees, and in some years special ceremonies such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navagrah Ashtamangalam Puja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have been conducted at the ruins, blending modern cultural revival with conservation sensitivities. The site’s designation as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>centrally protected monument</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by the Archaeological Survey of India ensures that its ritual use is carefully regulated to protect its structural integrity.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mudimanikyam village, Nalgonda district, Telangana, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In early 2024, archaeologists from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Public Research Institute of History, Archaeology, and Heritage (PRIHAH)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uncovered </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ancient temples dating back at least 1,300 years</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the banks of the Krishna River in Mudimanikyam village, Nalgonda district of Telangana. These temples belong to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Badami Chalukyan period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a dynasty that ruled large parts of southern and central India between the 6th and 8th centuries CE, particularly under famed rulers like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pulakeshin II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The archaeological team has so far identified </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>two primary temple structures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dating from roughly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>543 CE to 750 CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with architectural features characteristic of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Badami Chalukyan design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, yet uniquely blending </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kadamba Nagara style elements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rekha Nagara format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rare in present-day Telangana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. One of the temples retains a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>panavattam (base for a Shiva lingam)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the sanctum sanctorum, although the lingam itself is missing, while the other temple contained an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idol of Vishnu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, pointing to religious diversity and coexistence during the period. The discovery site also includes a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">label inscription bearing the text </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Gandaloranru”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, inscribed in early Kannada script and dating to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8th or 9th century CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which may reference a title or heroic epithet, though its precise meaning is still debated.The temples display a blend of architectural styles that make them uniquely important among surviving early medieval structures. Although characteristic of the Badami Chalukya era, they adopt the pyramid-shaped superstructure (shikara) of the Kadamba Nagara style, with stepped tiers topped by a kalasha (pinnacle), and combine this with Rekha Nagara influences, which include a curving tower with four equal sides. This hybrid architectural vocabulary is exceptional for Telangana, where few examples of this era and fusion have survived. The findings contribute significantly to understanding how regional temple architecture evolved as dynastic influences moved south and east from the Western Deccan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">These newly uncovered temples provide a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rare glimpse into the spread and architectural evolution of Badami Chalukyan influence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> into the Krishna River valley, extending the known cultural footprint of the dynasty beyond its core regions in Karnataka. The temples likely served as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>local religious centers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, reflecting both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shaivite and Vaishnavite traditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in worship. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inscription and structural remains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are especially valuable for historians, as they may help reconstruct patterns of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>religious practice, political influence, and temple patronage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in central Deccan India during the early medieval period. Because these structures predate many later South Indian temple complexes, they offer insight into architectural experimentation and religious life more than </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,300 years ago</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Currently, these temples are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not in use for worship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, as they remain archaeological sites without restored shrines or active priestly care. The focus at present is on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>conservation and study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, although local heritage advocates have expressed hopes that future preservation work could eventually reopen the site for ritual life or cultural commemoration.</t>
+    </r>
+  </si>
+  <si>
+    <t>Manambadi village, Thanjavur district, Tamil Nadu, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Naganathaswamy Temple at Manambadi is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ancient Chola-era Hindu temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> believed to have been constructed by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>King Rajendra Chola I (reigned 1012–1044 CE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, making it over </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,000 years old</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Revered as a site of Shaivite worship, the temple stands near the southern banks of the Kollidam River, approximately 15 km from Kumbakonam, and represents both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>religious devotion and architectural achievement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the early medieval Chola dynasty. Throughout its history, the temple has been celebrated for its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>intricate stone sculptures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inscriptions that shed light on cultural and ritual life during the Chola period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.The Naganathaswamy Temple at Manambadi is unique for being an early Chola monument commissioned by Rajendra Chola I that combines rich sculptural art, rare epigraphic records, and architectural elements such as makara arches and niche deities. Its association with introspective cultural inscriptions, including references to Tamil Koothu, and the fact that it was almost demolished in the name of renovation before being saved for restoration, underscore both its historical vulnerability and enduring heritage value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Architecturally, the Naganathaswamy Temple features an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ekatala vimana (a single-tiered sanctum tower)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mukha mandapa (entrance hall)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, each divided into three sculptural bays. These bays contain exquisitely carved niches with deities such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dakshinamurthi, Lingodhbava, and Brahma in the vimana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and figures like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bikshatana, Adavallan, Ganapathi, Durga, Gangadarara, and Ammaiappar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the mandapa, all framed by distinct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>makara thoranas (ceremonial arches)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that add to the temple’s visual richness. The walls carry inscriptions from the reigns of Rajendra Chola I and his successor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kulothunga Chola I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, detailing land grants, cultural patronage, and ritual endowments, including a rare mention of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tamil Koothu (traditional theatre) related to the temple’s Chithirai festival</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.The temple exemplifies Chola temple architecture in its balanced proportions, sculptural detail, and symbolic iconography. The ekatala vimana and sculpted niches reflect refined craftsmanship, while the makara arches and series of deity figures demonstrate the period’s artistic conventions. In addition, the presence of portrait sculptures of Rajendra Chola and possibly his queens in bas-relief further enhances the monument’s historical value, linking royal patronage directly to religious devotion and temple construction. Today, fragments of the original compound, damaged stone beams, and overgrown elements speak to both its antiquity and the centuries of environmental and human impact the site has endured.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>protected monument</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the Naganathaswamy Temple stands as a testament to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>powerful cultural and spiritual legacy of the Chola dynasty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, renowned for temple building and artistic patronage in South India. Its inscriptions not only record land grants and religious endowments but also provide valuable insights into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>festival practices and community life</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during the 11th–12th centuries. Over time, the temple became entwined with local religious rhythms and served as a hub for both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>worship and civic life</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, illustrating how sacred sites shaped regional identity and tradition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Due to its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ruined and partially dismantled state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the temple </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>does not host regular worship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as it once did centuries ago, and its ritual life has largely ceased. Historically, daily poojas and seasonal festivals would have been central to temple life, but today most rituals are minimal or held symbolically if at all. Calls for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>re-consecration and periodic pujas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have been made by cultural groups, especially ahead of significant festivals in the region, though these remain irregular.</t>
+    </r>
+  </si>
+  <si>
+    <t>Perumallapadu village, Chejarla Mandal, Nellore District, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Nageshwara Temple near Nellore is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recently rediscovered Shiva temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, believed to be around </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200–300 years old</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, that was buried under sand dunes for decades before being unearthed by local villagers. Situated near the Penna River, about 60 kilometers from Nellore city, this temple has gained attention not only for its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>historical and spiritual significance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but also for its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unique architectural features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and recent popular culture recognition after appearing in the introduction sequence of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kalki 2898 AD movie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The temple exemplifies how hidden historical treasures can lie beneath the sands, waiting to reveal rich insights into regional heritage.The Nageshwara Temple’s uniqueness lies in its recent discovery after being buried for decades, its rare brick construction with a circular sanctum and vimana, intricate carvings, and its emerging recognition in modern culture through media like the Kalki 2898 AD movie. It is an example of how regional history can remain hidden, only to be revived and celebrated as a significant cultural and spiritual site.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Nageshwara Temple is constructed primarily of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>brick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which sets it apart from many stone temples of the region. Its main sanctum, or garbhagriha, is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>small and circular</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, capped with a distinctive circular vimana (tower), reflecting an unusual design for South Indian temples. Intricate carvings adorn its walls, and the interior of the sanctum is small, dark, and ancient-feeling, with sunlight entering only through a hole in the kalasam (finial) atop the vimana. The structure and layout demonstrate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traditional temple symbolism adapted to brick construction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which is rare for this region, giving the temple both historical and architectural uniqueness.The temple’s brick construction, circular garbhagriha, and unusual vimana distinguish it from typical South Indian stone temples. Its small size and compact design suggest an intimate ritual space, while the circular plan and brick masonry reflect adaptive building techniques suitable for the region and materials available during its construction. The intricate carvings on the brick walls show skilled craftsmanship, and the way light enters the sanctum through the kalasam demonstrates thoughtful symbolic and functional design. This combination of uniqueness, craftsmanship, and adaptation to environmental conditions makes the Nageshwara Temple a rare and noteworthy architectural site.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Local legends suggest that the temple may have been </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consecrated by Lord Parasurama</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, linking it to ancient Shaivite traditions. Its gradual burial by sand is believed to have occurred around the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1850s due to Penna River floods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which caused the temple to be forgotten for generations. The rediscovery by villagers in 2020 underscores the temple’s historical importance, showing continuity of spiritual practice in the region despite periods of neglect. As a recently found temple, it is now becoming a site of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>religious reverence, archaeological interest, and cultural tourism</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, marking an important addition to the temple heritage of Andhra Pradesh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Being a recently rediscovered temple, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regular daily rituals are not yet fully established</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but local villagers and devotees have begun performing worship and basic Shaivite rites. During festivals, particularly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maha Shivaratri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the temple attracts visitors eager to honor Lord Shiva and witness the unique structure, gradually reinstating its spiritual relevance in the local community.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nandyal district, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Sangameswara Swamy Temple is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ancient Shiva temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> located at the confluence of seven rivers in Nandyal district, Andhra Pradesh. Its historical significance is immense, as it is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>believed to have been installed by the Pandava king Dharmaraja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, tying it to the epic traditions of the Mahabharata. The temple is unique because it </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>submerges annually in the Krishna river backwaters due to the Srisailam project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, typically from July until January or February, making it accessible for worship only for a few months each year. This seasonal submergence has added a rare spiritual and cultural dimension to the temple, blending devotion with natural cycles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The temple is constructed in a traditional </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dravidian style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, featuring a sanctum dedicated to Lord Shiva with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wooden Shiva Linga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that remarkably remains intact despite being submerged underwater for nearly eight months every year. Devotees witness the temple only during the dry months when the water level recedes, allowing access via steps leading down to the sanctum. Special rituals, such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jaladhivasa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, are performed before the temple goes underwater, highlighting the community’s dedication and the temple’s ritual adaptation to its unique environment. The surrounding riverbanks and confluence create a serene and powerful atmosphere, adding to the spiritual experience of visiting the temple during the accessible months.While largely submerged for most of the year, the temple demonstrates the adaptation of Dravidian architectural elements to its riverine environment, with durable construction and strategic placement near the confluence of rivers. The wooden Shiva Linga, surviving underwater for months, highlights the temple’s careful craftsmanship and ancient engineering knowledge that allowed such resilience. The circular sanctum, mandapas, and access steps reflect practical planning for seasonal accessibility, combining architecture with ritual functionality in a rare and remarkable way.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sangameswara Swamy Temple is historically significant due to its installation by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pandava king Dharmaraja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, linking it to ancient epic traditions and regional Shaivite devotion. The temple’s annual submergence has created a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unique ritual calendar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, where devotees perform special rites like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abhishekam and Jaladhivasa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> before the inundation. It represents the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resilience of faith and preservation of religious practices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, as the wooden Shiva Linga survives underwater unharmed, emphasizing the temple’s spiritual sanctity. Pilgrims and historians alike value the temple for its enduring devotion, mythological connection, and the interplay between nature and religious practice.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Due to annual submergence, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daily offerings are limited to the months when the temple is accessible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, roughly from February to June. Before the water rises, priests perform special </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jaladhivasa ceremonies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ritual bathing of the Linga in river water, along with regular </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abhishekam and pooja ceremonies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. During the submerged months, no rituals are performed, and the temple remains inaccessible to visitors, adding a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ritual rhythm dictated by nature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the temple’s spiritual practices.</t>
+    </r>
+  </si>
+  <si>
+    <t>Peruru Banda hillock, Tirupati, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Vakula Matha Temple, located on the Peruru Banda hillock near Tirupati, is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recently reconstructed shrine dedicated to Vakula Devi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the foster mother of Lord Venkateswara. After decades of neglect, destruction, and inaccessibility due to illegal granite mining, the temple was fully restored and inaugurated on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>June 23, 2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Its revival not only reinstates an important place of worship but also reconnects devotees with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rich cultural and spiritual heritage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> linked to Lord Venkateswara’s legends. The temple holds special significance in the local Vaishnavite tradition, as it is believed that Vakula Devi ensures that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Naivedyam offerings are first presented to her before Lord Venkateswara</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, highlighting her unique role in the Tirumala spiritual ecosystem.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The temple follows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traditional Dravidian architectural principles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with a three-tiered east-facing Rajagopuram. The Gopuram is plated with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20 kilograms of gold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a donation supported by the Tirumala Tirupati Devasthanams (TTD), and is strategically oriented to face the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seven Hills of Tirumala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, allowing the deity to “look” toward her son, Lord Venkateswara. The sanctum houses a black stone idol of Vakula Devi in a seated posture, exuding serenity and devotion, while the temple complex includes a dedicated kitchen for preparing Naivedyam offerings. The reconstruction was carried out meticulously according to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agama Shastra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, spanning </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11 years from 2011 to 2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ensuring religious and architectural authenticity.The Vakula Matha Temple is notable for its Dravidian style, golden-plated Rajagopuram, and careful alignment with the Tirumala Hills. The reconstruction preserved ancient design principles while incorporating modern reinforcement to ensure durability against environmental and human threats. The circular and symmetrical layout, along with the sanctum for Vakula Devi and the functional kitchen for Naivedyam, demonstrate precision in religious architecture, blending ceremonial needs with aesthetic excellence. The use of Agama Shastra guidelines over a decade-long reconstruction emphasizes its authenticity and spiritual adherence.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vakula Devi plays a crucial role in the Tirumala legends, believed to be a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reincarnation of Yashoda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, who wished to witness Krishna’s marriage. According to tradition, she facilitated Lord Venkateswara’s marriage to Padmavathi Devi, making her worship essential before any offering is made to the Lord. Historically, the original temple faced </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>destruction during the 17th-century invasions by Hyder Ali and Tipu Sultan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and post-independence neglect, along with illegal mining activities on Peruru Banda hillock, caused it to fall into ruin. The temple’s revival reflects both a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spiritual reclamation and cultural restoration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, reconnecting devotees with centuries-old rituals and narratives.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Naivedyam is first offered to Vakula Devi, with bells rung to signal this before offerings are made to Lord Venkateswara, continuing a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unique ritual practice revived after restoration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Regular poojas, festival celebrations, and special rituals are now conducted, reinstating the temple as an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>active center of devotion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The temple’s accessibility post-restoration allows devotees to participate fully in these centuries-old practices.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1265,7 +7226,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1435,6 +7396,31 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1886,13 +7872,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1902,9 +7894,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
@@ -2235,7 +8224,7 @@
   <sheetPr/>
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="B19" workbookViewId="0">
+    <sheetView zoomScale="72" zoomScaleNormal="72" topLeftCell="B19" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -2292,28 +8281,28 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
@@ -2325,7 +8314,7 @@
       <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2334,7 +8323,7 @@
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2378,7 +8367,7 @@
       <c r="G4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I4" t="s">
@@ -2407,7 +8396,7 @@
       <c r="G5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>47</v>
       </c>
       <c r="I5" t="s">
@@ -2450,7 +8439,7 @@
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2465,7 +8454,7 @@
       <c r="G7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>47</v>
       </c>
       <c r="I7" t="s">
@@ -2479,22 +8468,22 @@
       <c r="B8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>69</v>
       </c>
       <c r="I8" t="s">
@@ -2508,19 +8497,19 @@
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H9" t="s">
@@ -2540,16 +8529,16 @@
       <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -2566,22 +8555,22 @@
       <c r="B11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I11" t="s">
@@ -2595,7 +8584,7 @@
       <c r="B12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2610,7 +8599,7 @@
       <c r="G12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="3" t="s">
         <v>105</v>
       </c>
       <c r="I12" t="s">
@@ -2630,22 +8619,22 @@
       <c r="B13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="I13" t="s">
@@ -2662,19 +8651,19 @@
       <c r="C14" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="3" t="s">
         <v>124</v>
       </c>
       <c r="I14" t="s">
@@ -2688,19 +8677,19 @@
       <c r="B15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -2717,19 +8706,19 @@
       <c r="B16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="3" t="s">
         <v>140</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -2746,19 +8735,19 @@
       <c r="B17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="3" t="s">
         <v>148</v>
       </c>
       <c r="H17" t="s">
@@ -2775,19 +8764,19 @@
       <c r="B18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="3" t="s">
         <v>157</v>
       </c>
       <c r="H18" t="s">
@@ -2804,19 +8793,19 @@
       <c r="B19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="3" t="s">
         <v>166</v>
       </c>
       <c r="H19" t="s">
@@ -2833,19 +8822,19 @@
       <c r="B20" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H20" t="s">
@@ -3552,10 +9541,564 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="72" zoomScaleNormal="72" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="66" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.8" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.1363636363636" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.4727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.9454545454545" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.3636363636364" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.9090909090909" style="2" customWidth="1"/>
+    <col min="7" max="7" width="46.7272727272727" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.9090909090909" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.8636363636364" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.5454545454545" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.1272727272727" style="2" customWidth="1"/>
+    <col min="12" max="12" width="27.0909090909091" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H4" t="s">
+        <v>378</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H6" t="s">
+        <v>390</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" t="s">
+        <v>402</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H9" t="s">
+        <v>408</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H10" t="s">
+        <v>414</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="I11" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="I12" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H15" t="s">
+        <v>420</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="I18" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="I19" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H24" t="s">
+        <v>434</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" display="https://www.tamilnadutourism.tn.gov.in/" tooltip="https://www.tamilnadutourism.tn.gov.in/"/>
+    <hyperlink ref="H15" r:id="rId2" display="https://maduraimeenakshi.hrce.tn.gov.in/hrcehome/index_temple.php?tid=31962" tooltip="https://maduraimeenakshi.hrce.tn.gov.in/hrcehome/index_temple.php?tid=31962"/>
+    <hyperlink ref="H24" r:id="rId3" display="https://karnatakatourism.org/en/attractions/virupaksha-temple/" tooltip="https://karnatakatourism.org/en/attractions/virupaksha-temple/"/>
+    <hyperlink ref="H2" r:id="rId4" display="https://annamalaiyar.hrce.tn.gov.in/" tooltip="https://annamalaiyar.hrce.tn.gov.in/"/>
+    <hyperlink ref="H3" r:id="rId5" display="https://hassan.nic.in/en/tourist-place/chennakeshava-temple-belur/" tooltip="https://hassan.nic.in/en/tourist-place/chennakeshava-temple-belur/"/>
+    <hyperlink ref="H5" r:id="rId6" display="https://chengannurtemple.com/" tooltip="https://chengannurtemple.com/"/>
+    <hyperlink ref="H6" r:id="rId7" display="https://hrce.tn.gov.in/hrcehome/index.php" tooltip="https://hrce.tn.gov.in/hrcehome/index.php"/>
+    <hyperlink ref="H7" r:id="rId8" display="https://www.chottanikkarabhagavathy.org/" tooltip="https://www.chottanikkarabhagavathy.org/"/>
+    <hyperlink ref="H8" r:id="rId9" display="https://eastgodavari.ap.gov.in/temples/lord-bhimeswara-swami-temple-draksharama/" tooltip="https://eastgodavari.ap.gov.in/temples/lord-bhimeswara-swami-temple-draksharama/"/>
+    <hyperlink ref="H9" r:id="rId10" display="https://www.shridharmasthala.org/" tooltip="https://www.shridharmasthala.org/"/>
+    <hyperlink ref="H10" r:id="rId11" location="/login" display="https://guruvayurdevaswom.in/#/login"/>
+    <hyperlink ref="H17" r:id="rId12" display="https://chamundeshwaritemple.in/" tooltip="https://chamundeshwaritemple.in/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="66" customHeight="1"/>
@@ -3612,319 +10155,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="66" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="27.8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.1363636363636" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1818181818182" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.6363636363636" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.3636363636364" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.9090909090909" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46.7272727272727" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.9090909090909" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.8636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5454545454545" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.1272727272727" style="2" customWidth="1"/>
-    <col min="12" max="12" width="27.0909090909091" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>245</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>246</v>
@@ -3937,6 +10189,24 @@
       <c r="B3" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="I3" s="2" t="s">
         <v>249</v>
       </c>
@@ -3946,7 +10216,25 @@
         <v>250</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>251</v>
+        <v>447</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>252</v>
@@ -3959,6 +10247,24 @@
       <c r="B5" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>255</v>
       </c>
@@ -3970,6 +10276,24 @@
       <c r="B6" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>258</v>
       </c>
@@ -3981,6 +10305,24 @@
       <c r="B7" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>261</v>
       </c>
@@ -3992,6 +10334,24 @@
       <c r="B8" s="2" t="s">
         <v>263</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>264</v>
       </c>
@@ -4003,6 +10363,24 @@
       <c r="B9" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>267</v>
       </c>
@@ -4014,6 +10392,24 @@
       <c r="B10" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>270</v>
       </c>
@@ -4025,6 +10421,24 @@
       <c r="B11" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>273</v>
       </c>
@@ -4036,6 +10450,24 @@
       <c r="B12" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>276</v>
       </c>
@@ -4047,6 +10479,24 @@
       <c r="B13" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>279</v>
       </c>
@@ -4057,6 +10507,24 @@
       </c>
       <c r="B14" s="2" t="s">
         <v>281</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>282</v>

--- a/data/north_temples.xlsx
+++ b/data/north_temples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="593">
   <si>
     <t>FileName</t>
   </si>
@@ -7213,6 +7213,4611 @@
         <scheme val="minor"/>
       </rPr>
       <t>. The temple’s accessibility post-restoration allows devotees to participate fully in these centuries-old practices.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cave 1, Badami Cave Temples complex, Badami, Bagalkot district, Karnataka, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Nataraja sculpture housed in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Badami Cave 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>earliest and most powerful representations of Lord Shiva as the Cosmic Dancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in South India. Carved in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6th century CE during the reign of the Early Chalukya dynasty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, this monumental rock-cut idol stands as a defining symbol of India’s classical art and spiritual philosophy. The sculpture depicts Shiva performing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tandava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the divine dance of creation, preservation, and destruction, centuries before the famous Chola bronze Nataraja icons emerged, making it a foundational work in Indian iconography.This Nataraja sculpture is unique for its 18-armed composition, mathematical symbolism of 81 dance forms, and its position as one of the earliest depictions of dancing Shiva in South India. Unlike later Chola bronzes that emphasize fluidity and movement, this rock-cut form balances cosmic motion with architectural discipline, making it a rare blend of philosophy, geometry, and devotion. Its exceptional preservation, expressive detailing, and historical precedence make it one of the most important Shaivite sculptures in Indian art history.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The sculpture is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5-foot-tall, high-relief rock-cut figure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> carved directly into the sandstone wall on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>right side of Cave 1’s entrance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Shiva is depicted with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18 arms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, each positioned in precise rhythmic alignment, creating a strong sense of motion and balance despite being carved in stone. The arms form a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>geometric arrangement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that symbolizes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>81 dance postures (9 × 9 combinations)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, reflecting deep mathematical and philosophical thought. Shiva’s body posture conveys controlled dynamism, while the detailed ornaments, facial expressions, and flowing locks of hair enhance the visual rhythm of the dance. Nearby figures of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lord Ganesha and Nandi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reinforce the familial and devotional context of the scene.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Artistically and architecturally, the sculpture exemplifies </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Early Chalukyan rock-cut architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, characterized by clarity of form, symbolic complexity, and restrained ornamentation. The 18 arms are arranged with mathematical precision, while each hand displays specific </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>natya mudras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or holds symbolic objects such as the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damaru (drum), trishula (trident), pasa (noose), flame, and serpent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, all carved with remarkable depth and balance. Unlike later bronze Nataraja icons, this stone version emphasizes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>structural geometry and spatial harmony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, making it a crucial study point in the evolution of Indian sculptural traditions.Spiritually, this Nataraja represents the cosmic cycle of the universe, where Shiva’s dance governs creation, time, rhythm, and dissolution. Historically, the sculpture is extremely significant because it represents one of the earliest known visualizations of Shiva as Nataraja in South India, predating later Pallava and Chola interpretations. Its presence in a cave temple setting reflects the Chalukyan synthesis of Shaivism, artistic excellence, and royal patronage, marking a transitional phase from rock-cut traditions to structural temple architecture.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As part of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Badami Cave Temple complex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the Nataraja sculpture is not used for daily ritual worship today. The caves function primarily as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>protected archaeological and heritage monuments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, managed by the Archaeological Survey of India. However, the sculpture continues to hold immense spiritual reverence and is often the focal point for cultural studies, classical dance research, and heritage tourism, especially among Bharatanatyam and classical dance practitioners.</t>
+    </r>
+  </si>
+  <si>
+    <t>Budhanilkantha village, at the foothills of the Shivapuri Hills, about 8 km north of Kathmandu, Nepal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Budhanilkantha Temple is home to one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>largest, most ancient, and spiritually profound stone idols of Lord Vishnu in the world</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, depicting him in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jalashayana (cosmic sleep) posture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Dating back to approximately the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7th–8th century CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, during the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Licchavi period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, this massive black stone sculpture presents Lord Vishnu reclining on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cosmic serpent Shesha (Ananta)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, floating on primordial waters. Unlike many temple idols, the deity here is not housed inside a traditional sanctum but lies in an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open stone basin filled with water</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, reinforcing its cosmic symbolism. The idol is revered by both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hindus and Buddhists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, making it a powerful symbol of shared spiritual heritage in Nepal.The Budhanilkantha idol is unique for being the largest reclining Vishnu sculpture carved from a single stone, permanently resting in water, and worshipped without a traditional temple enclosure. Its cross-religious reverence, association with royal prophecy, and pristine preservation for over a millennium elevate it beyond a typical idol into a living cosmic symbol. The combination of monumental scale, philosophical depth, and uninterrupted worship makes it one of the most extraordinary Vishnu idols in South Asia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The idol is carved from a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single block of black basalt stone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, measuring approximately </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5 meters (16 feet) in length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and portrays Lord Vishnu reclining on his left side atop the multi-headed serpent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shesha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, whose coils form the divine bed. Vishnu’s serene face, half-closed eyes, and calm expression convey cosmic balance and detachment. His four arms hold the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chakra (discus), shankha (conch), gada (mace), and padma (lotus)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, while his consort </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lakshmi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is believed to be symbolically present near his feet. The entire sculpture rests in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rectangular stone tank filled with water</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, representing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cosmic ocean (Ksheer Sagar)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with Vishnu eternally preserving the universe between cycles of creation and destruction.Artistically, the Budhanilkantha idol is a masterpiece of early medieval Himalayan stone sculpture, remarkable for its scale, anatomical balance, and symbolic precision. The fluid carving of Vishnu’s body, the rhythmic arrangement of Shesha’s serpent hoods, and the harmonious integration of water as a living architectural element demonstrate advanced sculptural and cosmic planning. Unlike later enclosed temple traditions, this open-air idol emphasizes cosmic universality rather than ritual enclosure, making it architecturally rare among Vishnu icons. The absence of a towering gopuram or vimana further draws attention entirely to the idol itself as the spiritual axis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, the Budhanilkantha idol represents </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mahavishnu as the sustainer of the cosmos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, resting between cosmic cycles while the universe regenerates. Historically, the idol is deeply significant because it reflects </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>early Vaishnavism in the Himalayan region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the artistic sophistication of the Licchavi era. According to legend, the idol was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>discovered buried underground by a farmer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, aligning with Nepalese traditions of divine revelation. Notably, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kings of Nepal were historically forbidden from visiting the idol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, as prophecy foretold that a ruling monarch who visited Budhanilkantha would lose his throne — a belief that remained respected until the monarchy’s end, adding to the idol’s mystique and political symbolism.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Budhanilkantha idol remains an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>actively worshipped sacred site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Daily rituals include </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abhishekam (ritual bathing), flower offerings, oil lamps, and chanting of Vishnu Sahasranama</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Hindu priests. The temple becomes especially vibrant during </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Haribodhini Ekadashi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, when devotees believe Lord Vishnu awakens from his cosmic sleep, marking the end of Chaturmasya. Buddhists also visit the site, interpreting Vishnu as a manifestation of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avalokiteshvara</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, reflecting Nepal’s unique syncretic religious tradition.</t>
+    </r>
+  </si>
+  <si>
+    <t>Odisha State Museum, Bhubaneswar, Odisha, India.(Believed original provenance: Early medieval Odisha region)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Chamunda Devi idol displayed at the Odisha State Museum is one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>most intense and rare representations of the ferocious aspect of the Divine Feminine (Shakti)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Indian art. Dated approximately to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8th century CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, this sculpture belongs to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>early medieval period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tantric Shaktism and esoteric goddess worship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flourished across eastern India. Chamunda, the slayer of the demons </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chanda and Munda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, is depicted here not as a benevolent mother, but as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kala-Shakti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — the embodiment of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>death, time, dissolution, and cosmic truth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, meant to terrify evil and awaken spiritual fearlessness in devotees.This Chamunda Devi idol is unique for its uncompromisingly terrifying realism, representing Shakti not as a protector, but as the final truth of time and death. Unlike later softened goddess forms, this sculpture preserves the raw Tantric worldview where liberation comes through confronting fear, impermanence, and destruction. Its survival from the 8th century, its Odisha origin — a cradle of Tantric Shaktism — and its placement in a museum rather than a temple make it a rare, powerful, and intellectually demanding relic of India’s spiritual past.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The sculpture portrays Chamunda as an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emaciated, skeletal goddess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with sunken eyes, exposed ribs, sagging breasts, and a gaunt torso, symbolizing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impermanence of the physical body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. She is adorned with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mala (garland) of skulls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, wears a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jata-mukuta (matted hair crown)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> entwined with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>serpent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and holds a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kapala (bowl of blood or sacrificial essence)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In several Chamunda depictions from Odisha, she is shown seated upon or standing over a corpse or demon, reinforcing her role as the conqueror of death. The terrifying realism of the carving, combined with its ritual symbolism, sets this idol apart from conventional temple icons.Artistically, this sculpture is a masterclass in early medieval Indian expressionism, where emotional and philosophical impact outweighed aesthetic softness. The sculptor deliberately emphasized harsh anatomical realism to convey spiritual truth — decay, mortality, and transcendence. The detailing of bones, skull garlands, and facial features reflects advanced stone-carving skill, while also adhering strictly to Shilpa Shastra and Tantric iconographic texts, which prescribe Chamunda’s terrifying appearance. Odisha is particularly important in Chamunda iconography, as many early examples across India trace stylistic roots back to this region.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, Chamunda is worshipped as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Devi of death, time (Kala), cremation grounds, and ultimate liberation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, especially in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tantric and Shakta traditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. She represents the stage where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ego, fear, and illusion are destroyed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, leading to moksha. Historically, the prominence of such an idol during the 8th century reflects the rise of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tantric practices in Odisha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, particularly during the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bhauma-Kara and post-Gupta periods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, when goddess worship took more esoteric and symbolic forms. Chamunda idols were often installed near </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cremation grounds or secret shrines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, not in mainstream temples, which explains why many such idols later became </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>forgotten, displaced, or preserved only in museums</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">At present, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no daily worship is performed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, as the idol is preserved as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>museum artifact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> under controlled conditions. Historically, however, Chamunda worship involved </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>night rituals, Tantric mantras, bali (symbolic offerings), and cremation-ground sadhana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, rather than conventional temple pujas. Such practices were intentionally secretive and limited to initiated practitioners, which is one major reason these idols were later removed from active worship and relocated for preservation.</t>
+    </r>
+  </si>
+  <si>
+    <t>no website</t>
+  </si>
+  <si>
+    <t>Parasurameswara Temple, Gudimallam village, Tirupati district, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gudimallam Lingam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oldest and most unusual Shiva lingams in India</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, dating back to roughly the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3rd century BCE to 2nd century CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — well before most historical temples were constructed. Housed inside the Parasurameswara Temple in the village of Gudimallam (near Punganur, on the Andhra-Karnataka border region), this sculptural lingam is remarkable for being one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>earliest anthropomorphic representations of Lord Shiva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> integrated into a lingam form. Its antiquity, uniqueness of figure, and continued reverence make it a cornerstone in the study of Indian iconography, temple history, and religious continuity.The Gudimallam Lingam is unique in Indian religious art and sculpture because it is one of the earliest (possibly the earliest) surviving representations of Shiva, combining lingam symbolism with a human figure in the same stone. It predates classical temple forms and provides crucial evidence for how early South Asian religious communities visualized the divine. Its survival through millennia, continued worship, and the architectural layers built around it make this idol not just a relic but a living bridge between pre-historic cultic practice and organized temple religion.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unlike typical smooth cylindrical lingams, the Gudimallam Lingam features a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>full human figure carved in relief on the front of the shaft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, representing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vishwarupa Shiva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sthanu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (the cosmic form). The figure’s face, torso, and limbs are clearly articulated on the cylindrical body, with arms resting at the sides and legs suggested by the tapering form — making this both a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lingam and a sculptural figure simultaneously</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Part of the torso is adorned with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ornate jewelry and drapery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, indicating an early synthesis of abstract symbolism and human form. The lingam sits inside a simple stone sanctum, but its shape, pose, and elaborate design separate it from later stone monuments of classical temple sculpture.The Gudimallam Lingam itself is unique in Indian art history because it blurs the boundary between aniconic symbol and anthropomorphic deity, making it a transitional form not seen anywhere else in such an early period. The Parasurameswara Temple, which now houses the lingam, features later architectural additions from the Eastern Chalukya and Satyavahana periods, but all of these were designed to enshrine this ancient idol. The figure carved on the lingam was created using early chiseling techniques on hard stone, showing surprisingly high precision given the era. The visualization of human features combined with the cylindrical lingam form makes it a living document of how early Indian artisans conceptualized the divine.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, the Gudimallam Lingam symbolizes the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>union of the unmanifest cosmic pillar (lingam) with manifested divine form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, representing Shiva’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>omnipresence and transcendence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Historically, it predates most known temple architecture and shows that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cultic worship of Shiva in lingam form was established centuries before the Gupta and post-Gupta eras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It suggests a tradition where the lingam was both an aniconic symbol and a living representation of the deity’s body. Archaeologists and historians believe the idol was originally worshipped in a non-structural setting — possibly an open shrine or simple platform — before the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parasurameswara Temple was built around it during the early centuries of the Common Era</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Gudimallam Lingam is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>still worshipped today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with daily poojas and ablutions performed by priests of the Parasurameswara Temple. Rituals like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abhishekam (sacred bathing of the lingam), Alankaram (decoration with flowers), and Deeparadhana (lamp offering)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> occur according to traditional Shaiva Agama prescriptions. The temple also observes major festivals such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mahashivaratri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, during which the idol receives elaborate worship and attracts devotees from far-flung regions, reinforcing its status as an active sacred object rather than a mere museum piece.</t>
+    </r>
+  </si>
+  <si>
+    <t>Deep inside the Nallamala Forest, near Srisailam, Andhra Pradesh, India</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Istakameswari Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an ancient cave shrine nestled within the dense forests of the Nallamala range, close to the sacred town of Srisailam. Dating back to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8th–10th century CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, this remote temple is dedicated to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Goddess Parvati</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, worshipped here as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Istakameswari</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—the deity believed to fulfill the heartfelt desires (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ista</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) of her devotees. The shrine is revered not only for its antiquity but also for the extraordinary physical properties attributed to the idol.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The most remarkable aspect of the Istakameswari idol is its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>forehead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which—despite being carved from stone—</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feels unusually soft and warm to the touch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, often compared to human skin. This phenomenon has been reported consistently by devotees over generations and is central to the temple’s spiritual reputation. The tactile experience contributes to the belief that the deity is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>living</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and responsive to sincere prayers.The idol is enshrined within a small natural cave, and the deity is considered Swayambhu (self-manifested) rather than sculpted by human hands. The cave shrine maintains a raw, ancient sanctity, untouched by elaborate temple superstructures, preserving its original spiritual atmosphere.Distance: Approximately 20 km from Srisailam
+Access Mode: Reachable mainly by locally hired jeeps
+Terrain: Rough forest paths within a restricted forest area
+Permission: Entry is generally regulated due to wildlife and forest conservation rules.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A distinctive ritual associated with the shrine involves </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>applying sindoor (vermilion)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the Goddess’s forehead. Devotees believe that during this ritual, the forehead exhibits a gentle warmth, reinforcing faith in the Goddess’s presence and compassion. The practice symbolizes devotion, wish-seeking, and divine grace, aligning with the temple’s name and purpose.Surrounded by thick forest cover, the temple lies in a serene and secluded natural setting, enhanced by a small stream flowing nearby. The environment contributes to a strong sense of isolation, austerity, and spiritual intensity, characteristic of early Shakta and Shaiva forest shrines.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The ideal time to visit the Istakameswari Temple is between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>October and February</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, when weather conditions are favorable and forest paths are accessible. During the monsoon season, routes become slippery and difficult, making travel unsafe.The temple holds deep importance for devotees seeking fulfillment of wishes, spiritual solace, and divine intervention. Its antiquity, forest location, and the mysterious physical property of the idol make Istakameswari Temple a rare example of living-faith heritage, where belief, nature, and ancient worship practices converge.And the daily pujas are done by the local people.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.srisailadevasthanam.org/en-in/home</t>
+  </si>
+  <si>
+    <r>
+      <t>Sri Jambukeshwarar Temple (Thiruvanaikaval)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Tiruchirappalli District, Tamil Nadu.Carved on a temple pillar within the Jala Lingam (Water Element) shrine complex.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sculpture is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pillar relief from the Jambukeshwaram Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pancha Bhoota Sthalas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, where Lord Shiva is worshipped as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jala Lingam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the embodiment of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>water element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Unlike symbolic or narrative Shaiva sculptures, this relief is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>direct visual representation of the water principle (H2０)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> expressed through sacred iconography and temple geometry.Its uniqueness lies in being a rare convergence of temple science, Shaiva philosophy, and natural law, where molecular balance, elemental theory, and devotional iconography coexist in a single pillar relief within a Pancha Bhoota temple.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The sculpture features </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a dominant central Shiva figure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> standing in a composed yet powerful posture, flanked symmetrically by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>two smaller attendant figures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nandi appears below</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, grounding the composition. The relief is vertically aligned and carved directly into a structural pillar, indicating it was designed not merely as decoration but as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>philosophical marker embedded in the temple’s architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.The figures are proportioned intentionally:                 One large central form                             Two smaller lateral forms                         A stabilizing base element (Nandi)          This arrangement is not accidental but structurally and symbolically precise.Dating to the Chola period, when temple architecture integrated philosophy, nature, and ritual, this sculpture reflects an era where natural elements were consciously expressed through temple art, reinforcing Jambukeshwaram’s role as a living embodiment of Shaiva elemental worship rather than symbolic abstraction.The sculpture precisely mirrors the molecular structure of H₂O, with the central Shiva figure representing Oxygen (O) as the core life-giving element, while the two attendant figures represent the two Hydrogen atoms (H₂) bonded to it, forming a stable and life-sustaining structure, making this an intentional sacred visualization of water rather than a coincidental artistic arrangement.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, the sculpture represents Shiva as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jala Swaroopa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the life-sustaining, flowing, and binding force of existence, conveying that water is not inert matter but a divine, conscious element essential for creation, nourishment, and continuity in both cosmic and human life.Carved directly onto a load-bearing pillar, the sculpture emphasizes water as a supporting and sustaining force, aligning perfectly with the temple’s underground water flow beneath the sanctum, where the Jala Lingam eternally rests amid natural springs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily worship at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sri Jambukeshwarar Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> follows strict </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shaiva Agama traditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, uniquely aligned with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jala (water) element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, where the Shiva Lingam is naturally bathed by underground springs throughout the year; rituals begin with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ushathkala Abhishekam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the early morning using water, milk, and herbal substances, followed by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kalasanthi, Uchikalam, Sayarakshai, and Arthajama poojas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with special emphasis on water-based offerings rather than heavy floral or dry rituals, and a distinctive practice where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the priest performs pooja dressed as a woman (Amman)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to honor the legend of Goddess Parvati worshipping Shiva here; throughout the day, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jala abhishekam, deeparadhana, naivedyam, and mantra recitation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> continue, reinforcing the temple’s identity as the living embodiment of water, flow, purity, and sustenance rather than fire or stone-based worship.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kanchipuram, Tamil Nadu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Kanchi Kamakshi Devi idol is renowned across India for its legendary appearance of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>floating or hovering above its pedestal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, a phenomenon celebrated in temple lore as a manifestation of the goddess’s transcendent and boundless divine energy.The idol’s uniqueness lies in its illusion of levitation, where spiritual symbolism, architectural precision, and devotional psychology converge to create a living experience of divinity transcending physical reality, making it one of the most extraordinary Shakti idols in India.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Goddess Kamakshi is depicted in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seated meditative posture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> within a gold-plated sanctum, with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>three eyes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, holding a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sugarcane bow and flower arrows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, symbolizing love, creation, and control over the senses; devotees observe that the idol appears visually detached from the base, creating the powerful illusion that the goddess is suspended in mid-air rather than resting on a solid foundation.The sanctum is architecturally designed with precise idol placement, visual alignment, lighting, and shadow control, combined with a gold backdrop and elevated base, intentionally enhancing the perception of levitation and reinforcing the devotee’s experience of awe and divine mystery.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, the floating appearance signifies that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Divine Shakti is not bound by physical laws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, representing omnipresence, omnipotence, and transcendence over material existence, reminding devotees that the goddess operates beyond gravity, time, and form while still compassionately accessible to human prayer.From a metaphysical perspective, Kamakshi’s airborne form symbolizes Akasha (space or ether), the subtlest of the Pancha Bhootas, conveying that consciousness itself is weightless, all-pervading, and limitless, and that true divine power exists beyond matter and form.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily rituals at the Kamakshi Amman Temple follow strict </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shakta and Agamic traditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, beginning with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Suprabhatam and Abhishekam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, followed by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alankaram, Deeparadhana, Naivedyam, and mantra chanting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with special emphasis on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sri Vidya worship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Lalita Sahasranama recitation, and festival-specific rituals that honor the goddess as the living source of cosmic energy and grace.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sri Varasiddhi Vinayaka Swamy Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kanipakam village</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Chittoor district (now Tirupati district), Andhra Pradesh, situated near the banks of a small water source and closely connected to underground springs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Kanipakam Vinayaka idol is one of the most extraordinary </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self-manifested (Swayambhu) forms of Lord Ganesha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in India, revered for its unique phenomenon of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>continuous growth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, making it a living embodiment of divine presence rather than a static sculpted idol.Kanipakam Vinayaka’s uniqueness lies in being a living idol, permanently seated in water, self-manifested, continuously growing, and inseparable from the earth itself, making it one of the rare temples where the deity is not installed but revealed by nature.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The idol of Lord Ganesha is seen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emerging from a natural stone base inside a water-filled sanctum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with only the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>upper portion of the deity visible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, while the rest is believed to extend deeper into the earth; the idol appears moist at all times due to underground water flow, and its form is incomplete to the human eye, reinforcing its natural, uncarved, and self-originated nature.Architecturally, the sanctum is designed around the natural water source, allowing continuous inflow of water without disturbing the idol, symbolizing purity and life, while the surrounding Dravidian-style structures emphasize preservation of the natural phenomenon rather than dominance over it.The idol is believed to increase in size over time, supported by documented instances where silver and gold kavachams (armors) made decades earlier no longer fit, suggesting slow natural expansion possibly influenced by mineral accretion and water interaction, though devotees consider it a divine miracle beyond scientific limitation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, Kanipakam Vinayaka is worshipped as the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remover of deep-rooted obstacles and inner impurities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with strong belief that the deity enforces truth and justice, as legends state that false oaths taken before the idol result in immediate divine consequences, making the temple a powerful center for moral and spiritual cleansing.The temple’s origin dates back to the early 11th century during the Chola period, when three physically challenged brothers accidentally discovered the idol while digging a well, after which the site became spiritually active and was later expanded by Chola kings, Vijayanagara rulers, and modern administrations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily rituals include </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Suprabhatam, Abhishekam with water, milk, turmeric, and sandalwood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, followed by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alankaram, Naivedyam, Deeparadhana, and Archana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with special emphasis on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>water-based worship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, while Tuesdays, Sankatahara Chaturthi, and Vinayaka Chavithi are observed with elaborate rituals and processions.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://srikanipakadevasthanam.org/en-in/home</t>
+  </si>
+  <si>
+    <r>
+      <t>Chennakeshava Temple, Belur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hassan district, Karnataka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Mohini sculpture at the Chennakesava Temple in Belur represents </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mohini, the enchanting female incarnation of Lord Vishnu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, manifested during the cosmic event of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Samudra Manthana (Churning of the Ocean)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to distribute the amrita (nectar of immortality) and restore cosmic balance. In Hoysala art, Mohini is portrayed not merely as a mythological figure but as a visual embodiment of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>divine illusion (Maya)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, wisdom, and controlled beauty, emphasizing Vishnu’s power to transcend gender and form for dharmic purposes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Belur Mohini is carved in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tribhanga posture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, reflecting fluid movement and rhythmic elegance, with finely modeled limbs, narrow waist, and expressive facial serenity typical of Hoysala aesthetics. She is adorned with elaborate jewelry, anklets, armlets, layered necklaces, and an ornate headdress, all carved from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chloritic schist (soapstone)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, allowing exceptional detail and softness. The sculpture radiates grace without erotic excess, aligning beauty with divinity rather than sensuality.The sculpture dates to the early 12th century CE, during the reign of Hoysala King Vishnuvardhana, a major patron of Vaishnavism. The refined portrayal reflects the cultural sophistication of the Hoysala court, where theology, dance, sculpture, and philosophy were deeply interconnected. Mohini’s form also resonates with classical Indian dance traditions, reinforcing the temple’s role as a center of both devotion and artistic excellence.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, Mohini symbolizes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maya used for Dharma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, illustrating how illusion can serve cosmic order when guided by divine intent. Unlike Shaiva or ascetic interpretations, the Belur Mohini emphasizes Vishnu’s protective and strategic intelligence, reminding devotees that form is transient but purpose is eternal. Her calm expression conveys mastery over desire rather than indulgence in it.</t>
+    </r>
+  </si>
+  <si>
+    <t>It is nt a worshipable figure</t>
+  </si>
+  <si>
+    <t>Dindigul district of Tamil Nadu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Palani Murugan Temple, located in the Dindigul district of Tamil Nadu, is one of the most sacred pilgrimage centers dedicated to Lord Murugan (Subramanya Swamy) and forms an integral part of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arupadai Veedu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the six divine abodes of Murugan. Situated atop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sivagiri Hill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the temple is over a thousand years old and is renowned for housing the idol of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dhandayuthapani Swamy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, symbolizing Murugan as a youthful ascetic holding a staff, embodying renunciation, wisdom, and spiritual discipline.</t>
+    </r>
+  </si>
+  <si>
+    <t>The presiding deity, Dhandayuthapani Swamy, represents Lord Murugan in his ascetic form after renouncing worldly life, making Palani a powerful center for spiritual purification, penance, and healing. Devotees believe the deity possesses immense curative and divine powers, and worship here is especially associated with relief from physical ailments, mental distress, and karmic burdens.Pilgrims reach the hilltop shrine by climbing 689 steps, or by using a rope car or winch service, symbolizing spiritual ascent through effort and devotion. Major festivals such as Thai Poosam and Panguni Uthiram draw millions of devotees, many of whom undertake vows such as head tonsuring, carrying Kavadi, and observing fasts as acts of penance and surrender to Lord Murugan.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The idol at Palani is unique in Hindu temple tradition as it is believed to have been created by the legendary Siddha </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bhogar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navapashanam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, an ancient alchemical formula meaning “nine poisons.” Unlike conventional stone or metal idols, this idol is made from a hardened, resinous, wax-like substance formed by combining nine toxic minerals in precise proportions, which Siddha tradition holds results in a powerful medicinal compound rather than a harmful one.The nine substances traditionally associated with the idol’s creation include Veeram (Mercury Chloride), Pooram (Calomel), Rasam (Mercury), Jathilingam (Cinnabar), Kandagam (Sulphur), Gauri Pasanam (Arsenic Trioxide), Vellai Pasanam (White Arsenic), Mridharsingh (Lead Monoxide), and Silasat (an arsenic-based mineral). Though individually poisonous, Siddha philosophy maintains that their controlled combination transforms them into a stable, therapeutic substance with long-lasting medicinal properties.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abhishekam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ritual bathing) of the idol is performed using substances such as milk, sandalwood paste, and Panchamirtham, which devotees believe absorb the idol’s medicinal essence and become sacred healing prasadam. The sandalwood paste applied overnight and removed the next day is especially revered as a potent remedy for various illnesses, reinforcing the temple’s reputation as both a spiritual and healing center.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://ttdevasthanams.ap.gov.in/home/dashboard</t>
+  </si>
+  <si>
+    <r>
+      <t>Uthirakosamangai (Mangalanatha Swamy) Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Ramanathapuram district, Tamil Nadu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Marakatha Nataraja idol is enshrined at the ancient </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uthirakosamangai (Mangalanatha Swamy) Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Ramanathapuram district, Tamil Nadu, one of the oldest surviving Shaiva temples in India with origins tracing back over 3,000 years. This sacred idol of Lord Shiva in his cosmic dance form (Nataraja) is exceptionally rare, revered, and unique because it is crafted entirely from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emerald (marakatha)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, making it one of the most precious and spiritually significant Shiva icons in the world.</t>
+    </r>
+  </si>
+  <si>
+    <t>Unlike the traditional bronze Nataraja icons commonly found in Chola-era temples, the Uthirakosamangai Nataraja is carved from a single emerald stone, a material extremely difficult to sculpt due to its hardness and rarity. The translucent green hue of the emerald symbolizes regeneration, immortality, and divine energy, and the craftsmanship reflects extraordinary precision while preserving the classical iconographic elements of Shiva’s Ananda Tandava (Dance of Bliss).Uthirakosamangai is deeply associated with Shaiva Siddhanta philosophy and Tamil devotional tradition, and the Marakatha Nataraja stands as a living testament to ancient South India’s mastery of sacred art, metallurgy alternatives, and spiritual symbolism. Its survival through centuries, invasions, and natural decay elevates it from a mere idol to a priceless cultural and spiritual legacy of Indian civilization.</t>
+  </si>
+  <si>
+    <t>The Marakatha Nataraja represents Shiva as the cosmic dancer who performs the rhythmic cycle of creation, preservation, destruction, concealment, and grace. The emerald form is believed to amplify spiritual vibrations, symbolizing eternal life and moksha (liberation), and devotees consider darshan of this idol highly auspicious for spiritual awakening, inner balance, and removal of karmic burdens.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Due to the idol’s immense value and sacredness, the Marakatha Nataraja is kept covered and revealed to devotees only on special occasions, most notably during </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arudra Darshan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which commemorates Shiva’s cosmic dance. On these days, the unveiling itself is treated as a profound spiritual event, drawing large numbers of devotees who believe even a brief glimpse grants immense merit and divine grace.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yaganti Uma Maheswara Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Nandyal district, Andhra Pradesh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yaganti Basava is a sacred and iconic stone sculpture located at the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yaganti Uma Maheswara Temple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Nandyal district, Andhra Pradesh, a renowned Shaiva pilgrimage site nestled in the Nallamala hills. Unlike typical Nandi statues found in Shiva temples, the Yaganti Basava holds unique religious and cultural importance due to its unusual placement outside the sanctum and the long-standing belief that it is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>continuously growing in size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, making it one of the most mysterious sacred sculptures in India.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The most remarkable aspect of Yaganti Basava is the widespread belief that the sculpture is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slowly increasing in size over time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, particularly in length. Historical observations and records suggest that iron chains once used to restrain the statue were removed because they no longer fit, reinforcing the belief in its gradual growth and adding to its mystical reputation among devotees and scholars alike.Carved from a single block of stone, the Yaganti Basava displays exceptional craftsmanship, with detailed facial expressions, strong muscular form, and a serene yet powerful posture. The sculpture is oriented towards the temple, symbolizing eternal vigilance and devotion to Lord Shiva, and stands apart as a rare example where Nandi is not directly aligned with the sanctum.Yaganti Basava has become a defining symbol of the Yaganti temple complex and Andhra Pradesh’s spiritual heritage, attracting devotees, historians, and tourists alike. Its association with living stone mythology, Shaiva traditions, and regional folklore makes it a powerful representation of India’s blend of faith, art, and timeless mystery.</t>
+    </r>
+  </si>
+  <si>
+    <t>According to temple legends, the Basava (Nandi) at Yaganti was originally intended to be installed facing Lord Shiva, but divine intervention altered its placement, resulting in the statue being situated in an open courtyard. It is believed that sages performing penance at Yaganti were blessed by Lord Shiva, who manifested this Basava as a guardian and divine presence, symbolizing unwavering devotion, dharma, and strength.</t>
+  </si>
+  <si>
+    <t>Devotees worship Yaganti Basava as a divine embodiment of loyalty and protection, offering prayers for strength, stability, and fulfillment of vows. It is customary for pilgrims to touch or circumambulate the statue with reverence, believing that doing so grants blessings related to health, courage, and spiritual grounding.</t>
+  </si>
+  <si>
+    <r>
+      <t>Kalady village</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in present-day Kerala, India, around the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8th century CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (estimates place his life circa 700–750 CE),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adi Shankaracharya was an Indian philosopher, theologian, and spiritual reformer whose profound articulation of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advaita Vedanta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (“non-dualism”) reaffirmed the Vedic principles of monism — that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brahman (ultimate reality) alone is real</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the phenomenal world is an expression of Maya (illusion), shaping the course of Hindu thought and practice across centuries.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Legend and tradition portray Shankara as a brilliant ascetic who, in a short life of roughly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32 years</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, wrote authoritative commentaries on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brahma-Sutras, principal Upanishads, and Bhagavad-Gita</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, synthesised Vedic spirituality with systematic logic, authored devotional hymns, and established the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dashanami monastic order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and four cardinal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amnaya Peethams (mathas)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the north, south, east, and west of India to preserve and transmit Advaita teachings.Shankaracharya’s uniqueness lies in his synthesis of Vedanta philosophy into a coherent non-dual doctrine, his establishment of the four major Advaita mathas, his profound commentaries that became the standard exegesis of core Vedantic texts, and his role as a unifier of diverse Hindu traditions — a guru whose intellectual depth and spiritual insight transcended sectarian divisions and shaped the cultural spine of Indian spiritual thought.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, Adi Shankaracharya is revered not just as a thinker but as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jagadguru (world teacher)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> whose Advaita Vedanta teaches that individual consciousness (Atman) is identical to cosmic Brahman, guiding seekers toward liberation (moksha) through Jnana (knowledge) rather than ritual alone, and affirming the unity underlying diverse religious expressions.Metaphysically, Shankara’s doctrine sets aside dualistic interpretations of existence by proposing that the multiplicity perceived in the world is ultimately unreal (mithya) — like reflections in water — and that only the immutable Brahman subsists; this insight dissolves the boundary between subject and object and posits liberation as the direct realization of one’s essential oneness with Brahman.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Although Advaita is a philosophical school rather than a ritual tradition, Shankaracharya’s legacy is honoured through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Guru Purnima observances, chanting of his hymns (such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Soundarya Lahari</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nirvana Shatakam</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), pilgrimages to the four mathas, and philosophical study circles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with sincere disciples engaging in disciplined life, meditation, and scriptural study as offerings to his memory and teaching; his monastic successors (Shankaracharyas) continue to initiate seekers and uphold ritual continuity in their respective lineages.</t>
+    </r>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dakshinamurti is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pan-Indian iconographic form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Shiva found in many Shaiva temples across India, especially in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>South Indian temple niches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (south-facing chelams / niches), prominently in Chola, Pallava, Hoysala, and Vijayanagara period temples such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chidambaram, Kanchipuram, Madurai, Thanjavur, and Hoysaleswara temples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dakshinamurti — literally the “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>south-facing lord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">” — represents Lord Shiva as the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>universal guru who imparts the highest wisdom silently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, often depicted under a banyan tree, in deep contemplation, teaching through serene, non-verbal transmission of knowledge (ātma jñāna), dissolving ignorance and revealing the eternal Self.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In traditional iconography, Dakshinamurti is depicted as a youthful, meditative figure seated under a banyan tree on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>raised dais (pitha)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, facing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>south (dakshina)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with four arms holding symbolic attributes — the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fire (agni)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for inner dissolution of ignorance, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drum (damaru)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for cosmic rhythm, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necklace of beads (akshamala)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for continuous awareness, and the left hand in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jnana mudra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> indicating knowledge. Often with a lion as his seat or seated cross-legged (yogic posture), the right foot is slightly forward, hinting at living action rooted in wisdom, while attendants like sages or divine disciples surround him as listeners of spiritual truth.On a metaphysical level, Dakshinamurti symbolizes the cosmic consciousness within every seeker. His southward orientation signifies the conquest of death (as “south” is traditionally ruled by Yama), indicating that true wisdom liberates from the cycle of birth and death. The banyan tree represents eternal truth, the spreading shade embodies shelter from illusion, and his silent posture indicates that ultimate knowledge is understood not through speech, but through profound direct experience.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, Dakshinamurti is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>embodiment of the inner teacher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the one who removes ignorance (avidya) by illuminating the heart-mind with Self-knowledge (ātma-jnana). In Advaita Vedanta and Shaiva Siddhanta alike, he is revered as the ultimate guru who isn’t learned through scriptures or rituals alone but is realized within through direct intuitive insight. His teaching transcends syllables and words, representing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>silent realization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — wisdom accessed through meditation, surrender, and inner perception.Dakshinamurti is unique among Hindu deities because he represents knowledge itself as a living presence, the guru of sages and seekers alike, teaching silently through intuitive revelation. Unlike ceremonial deity forms that receive offerings and rituals externally, Dakshinamurti’s greatest teaching is inward — dissolving the illusion of duality and revealing the non-dual Self within, making him both a cosmic and internal spiritual guide.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">While Dakshinamurti forms are not typically the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>primary presiding deity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in temples, he is worshipped with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>special pujas, abhishekams, and japa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mantra recitation), especially on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thursdays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (day associated with guru light), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guru Purnima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and during knowledge-seeking rites. Students, seekers of wisdom, yogis, teachers, and scholars often perform homages with offerings of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bilva leaves, incense, and mantra chanting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, seeking clarity, liberation, and inner transformation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dattatreya is worshipped across India with strong spiritual centers at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mahur (Maharashtra), Girnar (Gujarat), Ganagapur (Karnataka), Akkalkot, Narasimha Wadi, Pithapuram (Andhra Pradesh)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and in forest hermitages, caves, and hill shrines, symbolizing his nature as a wandering ascetic rather than a temple-bound deity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dattatreya is regarded as the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adi Guru (primordial teacher)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> who taught that ultimate wisdom is not confined to scriptures, monasteries, or rituals but can be learned directly from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>life, nature, and experience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, making him one of the most radical and inclusive spiritual figures in Indian philosophy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Iconographically, Dattatreya is depicted as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>three-headed or single-headed ascetic with three faces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> representing Brahma, Vishnu, and Shiva, usually accompanied by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>four dogs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> symbolizing the four Vedas and a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> representing Mother Earth and Dharma; he is often shown holding a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kamandalu (water pot), trishula, damaru, and discus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, barefoot, unclad or lightly clothed, signifying detachment, freedom, and transcendence of social constructs.Metaphysically, Dattatreya’s most profound teaching is the doctrine of the 24 Gurus, where he states that he learned wisdom from elements of nature such as the earth, wind, fire, water, animals, and human behaviors, illustrating that the universe itself is a classroom, and liberation arises when the ego dissolves and consciousness aligns with cosmic order.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, Dattatreya represents the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guru principle itself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, teaching seekers that enlightenment arises through awareness rather than renunciation alone, and that every experience — joy, suffering, nature, animals, and even adversity — can become a teacher when observed with clarity; his philosophy emphasizes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self-realization through direct perception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, not blind adherence.Historically, Dattatreya influenced multiple spiritual lineages including Nath Yogis, Avadhuta traditions, Shaiva, Vaishnava, Shakta, and later saints like Sripada Srivallabha and Narasimha Saraswati, making him a unifying spiritual force across India that transcended rigid religious boundaries centuries before modern pluralism.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Worship of Dattatreya is typically simple and ascetic in nature, involving </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lamp lighting, incense, water offerings, japa of the “Digambara Digambara Shripada Vallabha Digambara” mantra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, meditation, and feeding of cows and dogs; Thursdays and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Datta Jayanti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are especially sacred, with emphasis on service (seva), humility, and guru remembrance rather than elaborate temple rituals.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kanchi Kamakoti Peetham in Kanchipuram, Tamil Nadu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Born in 1894 and ascending the peetham at the age of 13, Sri Chandrashekharendra Saraswati VIII became a living embodiment of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sanatana Dharma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, guiding India through colonial rule, independence, and modernity while preserving the deepest philosophical, ritualistic, and ethical foundations of Hindu civilization.Mahaswamigal’s uniqueness lies in his perfect balance of silence and scholarship, renunciation and relevance, where he upheld ancient traditions without rigidity and engaged the modern world without compromise, standing as a timeless bridge between Vedic wisdom and contemporary life.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mahaswamigal lived an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>austere ascetic life</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, clad in simple saffron robes, speaking sparingly, radiating profound silence and compassion, and teaching primarily through presence rather than discourse; despite his vast scriptural mastery of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vedas, Upanishads, Brahma Sutras, Advaita Vedanta, Agamas, and Smritis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, he remained humble, accessible, and deeply connected to ordinary devotees.Historically, he played a crucial role in the revival of Vedic education, temple traditions, Agama practices, and Sanskrit scholarship, guiding scholars, saints, scientists, artists, and political leaders alike, while remaining completely detached from power or fame, making him a silent architect of India’s spiritual continuity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, he is regarded as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jnani par excellence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, a realized soul who emphasized inner purity, devotion, humility, and surrender over ritual complexity, teaching that true spirituality lies in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self-discipline, compassion, and awareness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, regardless of one’s social or intellectual standing.Philosophically, Mahaswamigal was a towering authority on Advaita Vedanta, yet he harmonized it seamlessly with Bhakti and Karma Yoga, explaining that non-duality is not intellectual abstraction but lived experience achieved through dharmic living, self-control, and devotion, making ancient metaphysics accessible to modern minds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Devotees traditionally honor Mahaswamigal through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>simple prayers, chanting of Vedic mantras, Guru Stotrams, meditation, and acts of service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with Thursdays and his Aradhana days observed with special reverence; offerings emphasize </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>simplicity, purity, and intention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rather than grandeur.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mantralayam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, on the banks of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tungabhadra River</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in present-day Andhra Pradesh,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Born as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Venkatanatha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in 1595 CE, Sri Raghavendra Tirtha renounced worldly life to become a saint-scholar, eventually entering </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jeeva Samadhi in 1671 CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, declaring that he would continue to bless devotees for 700 years, a promise believed by followers to be actively fulfilled even today.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Raghavendra Swami is remembered as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scholar-saint of extraordinary intellect and compassion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, deeply learned in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vedas, Upanishads, Brahma Sutras, Nyaya, Mimamsa, and Madhvacharya’s Dvaita philosophy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, yet profoundly accessible to common people, offering solace, healing, and hope through prayer and devotion to Lord Vishnu.Historically, Sri Raghavendra Tirtha played a vital role in preserving Madhva lineage scholarship, writing extensive commentaries and guiding disciples who continued his philosophical legacy, while also becoming a unifying devotional figure beyond sectarian boundaries, respected by Shaivas, Vaishnavas, and common devotees alike.Sri Raghavendra Tirtha is unique because he represents the perfect synthesis of intellect, devotion, and living grace, a guru whose physical departure did not diminish his presence, transforming Mantralayam into a timeless spiritual force where faith, philosophy, and compassion converge.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiritually, Sri Raghavendra Tirtha is revered as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chiranjivi-like guru presence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, believed to be eternally active at Mantralayam, granting relief from suffering, protection from calamities, mental peace, and spiritual upliftment, especially to those who surrender with faith and humility.Philosophically, he strengthened Dvaita Vedanta, emphasizing the eternal distinction between Jiva (soul) and Ishvara (God), teaching that liberation is attained through devotion, righteous conduct, and divine grace, not ego-based intellectual conquest, thus grounding metaphysics in lived bhakti.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily worship at Mantralayam includes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seva, Harathi, Tirtha Prasada distribution, mantra japa, and the recitation of the Raghavendra Stotra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, with Thursdays considered especially powerful; devotees often perform </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seva Sankalpa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, feeding the poor, and charitable acts as offerings aligned with the saint’s teachings.</t>
     </r>
   </si>
 </sst>
@@ -7237,6 +11842,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -7396,14 +12009,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7742,16 +12347,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7760,119 +12362,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7880,11 +12485,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7892,17 +12510,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8281,28 +12899,28 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:12">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
@@ -8314,7 +12932,7 @@
       <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -8323,7 +12941,7 @@
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -8367,7 +12985,7 @@
       <c r="G4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I4" t="s">
@@ -8396,7 +13014,7 @@
       <c r="G5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I5" t="s">
@@ -8439,7 +13057,7 @@
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -8454,7 +13072,7 @@
       <c r="G7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I7" t="s">
@@ -8468,22 +13086,22 @@
       <c r="B8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="16" t="s">
         <v>69</v>
       </c>
       <c r="I8" t="s">
@@ -8497,19 +13115,19 @@
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H9" t="s">
@@ -8529,16 +13147,16 @@
       <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -8555,22 +13173,22 @@
       <c r="B11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>96</v>
       </c>
       <c r="I11" t="s">
@@ -8584,7 +13202,7 @@
       <c r="B12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="15" t="s">
         <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -8599,7 +13217,7 @@
       <c r="G12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I12" t="s">
@@ -8619,22 +13237,22 @@
       <c r="B13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I13" t="s">
@@ -8651,19 +13269,19 @@
       <c r="C14" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>124</v>
       </c>
       <c r="I14" t="s">
@@ -8677,19 +13295,19 @@
       <c r="B15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>132</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -8706,19 +13324,19 @@
       <c r="B16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -8735,19 +13353,19 @@
       <c r="B17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H17" t="s">
@@ -8764,19 +13382,19 @@
       <c r="B18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>157</v>
       </c>
       <c r="H18" t="s">
@@ -8793,19 +13411,19 @@
       <c r="B19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>166</v>
       </c>
       <c r="H19" t="s">
@@ -8822,19 +13440,19 @@
       <c r="B20" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>175</v>
       </c>
       <c r="H20" t="s">
@@ -9609,16 +14227,16 @@
       <c r="C2" t="s">
         <v>361</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>365</v>
       </c>
       <c r="H2" t="s">
@@ -9638,16 +14256,16 @@
       <c r="C3" t="s">
         <v>367</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>371</v>
       </c>
       <c r="H3" t="s">
@@ -9667,16 +14285,16 @@
       <c r="C4" t="s">
         <v>373</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>377</v>
       </c>
       <c r="H4" t="s">
@@ -9693,19 +14311,19 @@
       <c r="B5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>383</v>
       </c>
       <c r="H5" t="s">
@@ -9722,19 +14340,19 @@
       <c r="B6" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>389</v>
       </c>
       <c r="H6" t="s">
@@ -9751,19 +14369,19 @@
       <c r="B7" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>395</v>
       </c>
       <c r="H7" t="s">
@@ -9780,19 +14398,19 @@
       <c r="B8" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>401</v>
       </c>
       <c r="H8" t="s">
@@ -9809,19 +14427,19 @@
       <c r="B9" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>407</v>
       </c>
       <c r="H9" t="s">
@@ -9841,16 +14459,16 @@
       <c r="C10" t="s">
         <v>409</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>413</v>
       </c>
       <c r="H10" t="s">
@@ -9867,7 +14485,7 @@
       <c r="B11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="4"/>
       <c r="I11" s="2" t="s">
         <v>207</v>
       </c>
@@ -9879,7 +14497,7 @@
       <c r="B12" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="5"/>
       <c r="I12" s="2" t="s">
         <v>210</v>
       </c>
@@ -9916,16 +14534,16 @@
       <c r="C15" t="s">
         <v>415</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>419</v>
       </c>
       <c r="H15" t="s">
@@ -9953,19 +14571,19 @@
       <c r="B17" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>425</v>
       </c>
       <c r="H17" t="s">
@@ -9982,7 +14600,7 @@
       <c r="B18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
       <c r="I18" s="2" t="s">
         <v>228</v>
       </c>
@@ -9994,7 +14612,7 @@
       <c r="B19" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="5"/>
       <c r="I19" s="2" t="s">
         <v>231</v>
       </c>
@@ -10050,19 +14668,19 @@
       <c r="B24" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>433</v>
       </c>
       <c r="H24" t="s">
@@ -10097,7 +14715,7 @@
   <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScale="72" zoomScaleNormal="72" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -10160,19 +14778,19 @@
       <c r="B2" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>440</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -10189,19 +14807,19 @@
       <c r="B3" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>446</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -10218,19 +14836,19 @@
       <c r="B4" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>452</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -10247,19 +14865,19 @@
       <c r="B5" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>457</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -10276,19 +14894,19 @@
       <c r="B6" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>462</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -10305,19 +14923,19 @@
       <c r="B7" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>467</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -10334,19 +14952,19 @@
       <c r="B8" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>472</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -10363,19 +14981,19 @@
       <c r="B9" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>477</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -10392,19 +15010,19 @@
       <c r="B10" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>482</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -10421,19 +15039,19 @@
       <c r="B11" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>487</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -10450,19 +15068,19 @@
       <c r="B12" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>492</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -10479,19 +15097,19 @@
       <c r="B13" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>497</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -10508,19 +15126,19 @@
       <c r="B14" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>502</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -10541,8 +15159,8 @@
   <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="72" zoomScaleNormal="72" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="66" customHeight="1"/>
@@ -10604,6 +15222,21 @@
       <c r="B2" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>285</v>
       </c>
@@ -10615,6 +15248,21 @@
       <c r="B3" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>512</v>
+      </c>
       <c r="I3" s="2" t="s">
         <v>288</v>
       </c>
@@ -10626,6 +15274,24 @@
       <c r="B4" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>291</v>
       </c>
@@ -10637,6 +15303,24 @@
       <c r="B5" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>294</v>
       </c>
@@ -10648,6 +15332,24 @@
       <c r="B6" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="H6" t="s">
+        <v>529</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>297</v>
       </c>
@@ -10659,6 +15361,24 @@
       <c r="B7" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>300</v>
       </c>
@@ -10670,6 +15390,24 @@
       <c r="B8" s="2" t="s">
         <v>302</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>303</v>
       </c>
@@ -10681,6 +15419,24 @@
       <c r="B9" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="H9" t="s">
+        <v>545</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>306</v>
       </c>
@@ -10692,6 +15448,24 @@
       <c r="B10" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>309</v>
       </c>
@@ -10703,6 +15477,24 @@
       <c r="B11" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>312</v>
       </c>
@@ -10714,6 +15506,10 @@
       <c r="B12" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="E12" s="4"/>
+      <c r="H12" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>315</v>
       </c>
@@ -10725,6 +15521,10 @@
       <c r="B13" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="E13" s="8"/>
+      <c r="H13" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>318</v>
       </c>
@@ -10736,6 +15536,10 @@
       <c r="B14" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="E14" s="4"/>
+      <c r="H14" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I14" s="2" t="s">
         <v>321</v>
       </c>
@@ -10747,6 +15551,10 @@
       <c r="B15" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="E15" s="9"/>
+      <c r="H15" t="s">
+        <v>556</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>324</v>
       </c>
@@ -10758,6 +15566,10 @@
       <c r="B16" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="E16" s="4"/>
+      <c r="H16" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I16" s="2" t="s">
         <v>327</v>
       </c>
@@ -10769,6 +15581,24 @@
       <c r="B17" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="C17" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I17" s="2" t="s">
         <v>330</v>
       </c>
@@ -10780,11 +15610,34 @@
       <c r="B18" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="I18" s="2" t="s">
         <v>333</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1" display="https://srikanipakadevasthanam.org/en-in/home" tooltip="https://srikanipakadevasthanam.org/en-in/home"/>
+    <hyperlink ref="H6" r:id="rId2" display="https://www.srisailadevasthanam.org/en-in/home" tooltip="https://www.srisailadevasthanam.org/en-in/home"/>
+    <hyperlink ref="H15" r:id="rId3" display="https://ttdevasthanams.ap.gov.in/home/dashboard" tooltip="https://ttdevasthanams.ap.gov.in/home/dashboard"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -10795,8 +15648,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="66" customHeight="1"/>
@@ -10858,6 +15711,24 @@
       <c r="B2" s="2" t="s">
         <v>335</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>336</v>
       </c>
@@ -10869,6 +15740,24 @@
       <c r="B3" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="I3" s="2" t="s">
         <v>339</v>
       </c>
@@ -10880,6 +15769,24 @@
       <c r="B4" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>342</v>
       </c>
@@ -10891,6 +15798,24 @@
       <c r="B5" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>345</v>
       </c>
@@ -10902,6 +15827,24 @@
       <c r="B6" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>348</v>
       </c>
@@ -10913,6 +15856,9 @@
       <c r="B7" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>351</v>
       </c>
@@ -10924,6 +15870,9 @@
       <c r="B8" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>354</v>
       </c>
@@ -10935,6 +15884,9 @@
       <c r="B9" s="2" t="s">
         <v>356</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>357</v>
       </c>
@@ -10945,6 +15897,9 @@
       </c>
       <c r="B10" s="2" t="s">
         <v>359</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>360</v>
